--- a/application/data/StudentData.xlsx
+++ b/application/data/StudentData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mecha\Documents\GitHub\Invited-Meeting-Scheduler\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8581D316-E093-4D0E-B825-99BDA74DA324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692E7367-6E20-47E0-A774-28EC514D2D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="2190" windowWidth="13260" windowHeight="11385" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25859" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31612" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -82,9 +82,6 @@
     <t>ROT4</t>
   </si>
   <si>
-    <t>H, S, GL</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -95,24 +92,6 @@
   </si>
   <si>
     <t>GE</t>
-  </si>
-  <si>
-    <t>GL, H</t>
-  </si>
-  <si>
-    <t>GL, S</t>
-  </si>
-  <si>
-    <t>S, H, GL</t>
-  </si>
-  <si>
-    <t>S, H</t>
-  </si>
-  <si>
-    <t>H, GL</t>
-  </si>
-  <si>
-    <t>H, S</t>
   </si>
   <si>
     <t/>
@@ -169,9 +148,6 @@
     <t>Rosa M. Parks Middle School</t>
   </si>
   <si>
-    <t>S, GL</t>
-  </si>
-  <si>
     <t>Global, Humanities, SMCS</t>
   </si>
   <si>
@@ -184,9 +160,6 @@
     <t>Humanities, SMCS</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
@@ -194,6 +167,48 @@
   </si>
   <si>
     <t>g</t>
+  </si>
+  <si>
+    <t>1SMCS</t>
+  </si>
+  <si>
+    <t>3Global, Humanities, SMCS</t>
+  </si>
+  <si>
+    <t>2Global, Humanities</t>
+  </si>
+  <si>
+    <t>1Global</t>
+  </si>
+  <si>
+    <t>1Humanities</t>
+  </si>
+  <si>
+    <t>2Global, SMCS</t>
+  </si>
+  <si>
+    <t>2Humanities, SMCS</t>
+  </si>
+  <si>
+    <t>1 Rotations: SMCS</t>
+  </si>
+  <si>
+    <t>3 Rotations: Global, Humanities, SMCS</t>
+  </si>
+  <si>
+    <t>2 Rotations: Global, Humanities</t>
+  </si>
+  <si>
+    <t>1 Rotations: Global</t>
+  </si>
+  <si>
+    <t>1 Rotations: Humanities</t>
+  </si>
+  <si>
+    <t>2 Rotations: Global, SMCS</t>
+  </si>
+  <si>
+    <t>2 Rotations: Humanities, SMCS</t>
   </si>
 </sst>
 </file>
@@ -532,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="F170" sqref="F170"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +590,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -656,18 +671,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>123456.0</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>123456</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -1397,13 +1412,13 @@
         <v>213456</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -1420,13 +1435,13 @@
         <v>215351</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
@@ -1512,13 +1527,13 @@
         <v>234539</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -1696,13 +1711,13 @@
         <v>353515</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
@@ -1765,13 +1780,13 @@
         <v>411168</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>9</v>
@@ -2271,13 +2286,13 @@
         <v>463462</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C76" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E76" t="s">
         <v>10</v>
@@ -2685,13 +2700,13 @@
         <v>466803</v>
       </c>
       <c r="B94" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E94" t="s">
         <v>9</v>
@@ -5198,7 +5213,7 @@
         <v>8</v>
       </c>
       <c r="D203" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E203" t="s">
         <v>10</v>
@@ -5217,7 +5232,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5251,7 +5266,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B2" t="n">
         <v>111111.0</v>
@@ -5263,17 +5278,17 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B3" t="n">
         <v>122534.0</v>
@@ -5285,7 +5300,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -5294,12 +5309,12 @@
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B4" t="n">
         <v>122789.0</v>
@@ -5311,19 +5326,19 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B5" t="n">
         <v>122873.0</v>
@@ -5335,44 +5350,44 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B6" t="n">
-        <v>123788.0</v>
+        <v>123456.0</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B7" t="n">
-        <v>130892.0</v>
+        <v>123788.0</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -5381,24 +5396,20 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
+      <c r="G7"/>
+      <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B8" t="n">
-        <v>132394.0</v>
+        <v>130892.0</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -5407,20 +5418,24 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8"/>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B9" t="n">
-        <v>132532.0</v>
+        <v>132394.0</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -5429,20 +5444,20 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B10" t="n">
-        <v>132853.0</v>
+        <v>132532.0</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -5451,20 +5466,20 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B11" t="n">
-        <v>134333.0</v>
+        <v>132853.0</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -5473,20 +5488,20 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B12" t="n">
-        <v>134390.0</v>
+        <v>134333.0</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -5495,24 +5510,20 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>135062.0</v>
+        <v>134390.0</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -5521,20 +5532,24 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13"/>
-      <c r="H13"/>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B14" t="n">
-        <v>137940.0</v>
+        <v>135062.0</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -5543,24 +5558,20 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B15" t="n">
-        <v>140093.0</v>
+        <v>137940.0</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -5569,22 +5580,24 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
       </c>
-      <c r="H15"/>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B16" t="n">
-        <v>140892.0</v>
+        <v>140093.0</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -5593,20 +5606,22 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16"/>
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B17" t="n">
-        <v>142310.0</v>
+        <v>140892.0</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -5618,21 +5633,17 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B18" t="n">
-        <v>146632.0</v>
+        <v>142310.0</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -5641,22 +5652,24 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18"/>
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B19" t="n">
-        <v>156681.0</v>
+        <v>146632.0</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -5665,20 +5678,22 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19"/>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n">
-        <v>161618.0</v>
+        <v>156681.0</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -5687,20 +5702,20 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B21" t="n">
-        <v>168329.0</v>
+        <v>161618.0</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -5709,20 +5724,20 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B22" t="n">
-        <v>169650.0</v>
+        <v>168329.0</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -5731,20 +5746,20 @@
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n">
-        <v>173425.0</v>
+        <v>169650.0</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -5753,20 +5768,20 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B24" t="n">
-        <v>178071.0</v>
+        <v>173425.0</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -5775,22 +5790,20 @@
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G24"/>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B25" t="n">
-        <v>178156.0</v>
+        <v>178071.0</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -5799,20 +5812,22 @@
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25"/>
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B26" t="n">
-        <v>181903.0</v>
+        <v>178156.0</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -5821,24 +5836,20 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B27" t="n">
-        <v>182120.0</v>
+        <v>181903.0</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -5847,20 +5858,24 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
         <v>19</v>
       </c>
-      <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27"/>
-      <c r="H27"/>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B28" t="n">
-        <v>186663.0</v>
+        <v>182120.0</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -5869,24 +5884,20 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B29" t="n">
-        <v>187393.0</v>
+        <v>186663.0</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -5895,22 +5906,24 @@
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29"/>
+        <v>21</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B30" t="n">
-        <v>190029.0</v>
+        <v>187393.0</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -5919,22 +5932,22 @@
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B31" t="n">
-        <v>194574.0</v>
+        <v>190029.0</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -5943,20 +5956,22 @@
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31"/>
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
       <c r="H31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B32" t="n">
-        <v>198048.0</v>
+        <v>194574.0</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -5965,22 +5980,20 @@
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G32"/>
       <c r="H32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>198741.0</v>
+        <v>198048.0</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -5989,20 +6002,22 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33"/>
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
       <c r="H33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>199787.0</v>
+        <v>198741.0</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -6011,24 +6026,20 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B35" t="n">
-        <v>200672.0</v>
+        <v>199787.0</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -6037,20 +6048,24 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35"/>
-      <c r="H35"/>
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>210938.0</v>
+        <v>200672.0</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -6059,96 +6074,96 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>213456.0</v>
+        <v>210938.0</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
         <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B38" t="n">
-        <v>215351.0</v>
+        <v>213456.0</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38"/>
+        <v>20</v>
+      </c>
+      <c r="H38" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B39" t="n">
-        <v>225969.0</v>
+        <v>215351.0</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39"/>
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
       <c r="H39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B40" t="n">
-        <v>231348.0</v>
+        <v>225969.0</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -6157,22 +6172,20 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G40"/>
       <c r="H40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B41" t="n">
-        <v>232461.0</v>
+        <v>231348.0</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -6181,64 +6194,66 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41"/>
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
       <c r="H41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B42" t="n">
-        <v>234539.0</v>
+        <v>232461.0</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B43" t="n">
-        <v>257317.0</v>
+        <v>234539.0</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G43"/>
       <c r="H43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B44" t="n">
-        <v>276682.0</v>
+        <v>257317.0</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -6247,20 +6262,20 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>278390.0</v>
+        <v>276682.0</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -6269,7 +6284,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F45" t="s">
         <v>21</v>
@@ -6279,10 +6294,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B46" t="n">
-        <v>292270.0</v>
+        <v>278390.0</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -6291,20 +6306,20 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B47" t="n">
-        <v>292271.0</v>
+        <v>292270.0</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -6313,20 +6328,20 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B48" t="n">
-        <v>299774.0</v>
+        <v>292271.0</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -6335,7 +6350,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F48" t="s">
         <v>21</v>
@@ -6345,10 +6360,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B49" t="n">
-        <v>299880.0</v>
+        <v>299774.0</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -6357,68 +6372,66 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B50" t="n">
-        <v>353515.0</v>
+        <v>299880.0</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G50"/>
       <c r="H50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B51" t="n">
-        <v>406490.0</v>
+        <v>353515.0</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B52" t="n">
-        <v>409089.0</v>
+        <v>406490.0</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -6427,66 +6440,66 @@
         <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52"/>
+        <v>19</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
       <c r="H52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B53" t="n">
-        <v>411168.0</v>
+        <v>409089.0</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s">
         <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>417688.0</v>
+        <v>411168.0</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E54" t="s">
         <v>21</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G54"/>
       <c r="H54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B55" t="n">
-        <v>419371.0</v>
+        <v>417688.0</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -6495,22 +6508,22 @@
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>419659.0</v>
+        <v>419371.0</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -6522,19 +6535,19 @@
         <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>420119.0</v>
+        <v>419659.0</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -6543,24 +6556,22 @@
         <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G57" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B58" t="n">
-        <v>436542.0</v>
+        <v>420119.0</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -6569,20 +6580,24 @@
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58"/>
-      <c r="H58"/>
+        <v>18</v>
+      </c>
+      <c r="G58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>439155.0</v>
+        <v>436542.0</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -6591,20 +6606,20 @@
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B60" t="n">
-        <v>441021.0</v>
+        <v>439155.0</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -6613,20 +6628,20 @@
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B61" t="n">
-        <v>442262.0</v>
+        <v>441021.0</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -6635,20 +6650,20 @@
         <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B62" t="n">
-        <v>442931.0</v>
+        <v>442262.0</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -6657,24 +6672,20 @@
         <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
-      <c r="H62" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G62"/>
+      <c r="H62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B63" t="n">
-        <v>443257.0</v>
+        <v>442931.0</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -6683,22 +6694,24 @@
         <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G63" t="s">
         <v>20</v>
       </c>
-      <c r="H63"/>
+      <c r="H63" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B64" t="n">
-        <v>446253.0</v>
+        <v>443257.0</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -6707,22 +6720,22 @@
         <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B65" t="n">
-        <v>448013.0</v>
+        <v>446253.0</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -6731,22 +6744,22 @@
         <v>8</v>
       </c>
       <c r="E65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
         <v>19</v>
       </c>
-      <c r="F65" t="s">
-        <v>21</v>
-      </c>
       <c r="G65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B66" t="n">
-        <v>452390.0</v>
+        <v>448013.0</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -6755,24 +6768,22 @@
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G66" t="s">
-        <v>21</v>
-      </c>
-      <c r="H66" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B67" t="n">
-        <v>452992.0</v>
+        <v>452390.0</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -6781,22 +6792,24 @@
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67"/>
+        <v>21</v>
+      </c>
+      <c r="H67" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B68" t="n">
-        <v>454280.0</v>
+        <v>452992.0</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -6805,22 +6818,22 @@
         <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B69" t="n">
-        <v>454287.0</v>
+        <v>454280.0</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -6829,20 +6842,22 @@
         <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69"/>
+        <v>20</v>
+      </c>
+      <c r="G69" t="s">
+        <v>21</v>
+      </c>
       <c r="H69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B70" t="n">
-        <v>454745.0</v>
+        <v>454287.0</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
@@ -6851,22 +6866,20 @@
         <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G70"/>
       <c r="H70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B71" t="n">
-        <v>454770.0</v>
+        <v>454745.0</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
@@ -6875,20 +6888,22 @@
         <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71"/>
+        <v>18</v>
+      </c>
+      <c r="G71" t="s">
+        <v>21</v>
+      </c>
       <c r="H71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B72" t="n">
-        <v>455839.0</v>
+        <v>454770.0</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -6902,17 +6917,15 @@
       <c r="F72" t="s">
         <v>21</v>
       </c>
-      <c r="G72" t="s">
-        <v>22</v>
-      </c>
+      <c r="G72"/>
       <c r="H72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B73" t="n">
-        <v>461540.0</v>
+        <v>455839.0</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
@@ -6921,22 +6934,22 @@
         <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G73" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B74" t="n">
-        <v>462838.0</v>
+        <v>461540.0</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
@@ -6945,72 +6958,70 @@
         <v>8</v>
       </c>
       <c r="E74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F74" t="s">
         <v>21</v>
       </c>
       <c r="G74" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B75" t="n">
-        <v>463462.0</v>
+        <v>462838.0</v>
       </c>
       <c r="C75" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B76" t="n">
-        <v>463934.0</v>
+        <v>463462.0</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H76" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B77" t="n">
-        <v>464863.0</v>
+        <v>463934.0</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
@@ -7019,24 +7030,24 @@
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
       </c>
       <c r="G77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B78" t="n">
-        <v>465018.0</v>
+        <v>464863.0</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
@@ -7048,19 +7059,21 @@
         <v>19</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>22</v>
-      </c>
-      <c r="H78"/>
+        <v>21</v>
+      </c>
+      <c r="H78" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B79" t="n">
-        <v>465085.0</v>
+        <v>465018.0</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
@@ -7069,20 +7082,22 @@
         <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79"/>
+        <v>20</v>
+      </c>
+      <c r="G79" t="s">
+        <v>21</v>
+      </c>
       <c r="H79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B80" t="n">
-        <v>465090.0</v>
+        <v>465085.0</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
@@ -7091,22 +7106,20 @@
         <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G80"/>
       <c r="H80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B81" t="n">
-        <v>465141.0</v>
+        <v>465090.0</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -7115,22 +7128,22 @@
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B82" t="n">
-        <v>465275.0</v>
+        <v>465141.0</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
@@ -7139,24 +7152,22 @@
         <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F82" t="s">
         <v>20</v>
       </c>
       <c r="G82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B83" t="n">
-        <v>465391.0</v>
+        <v>465275.0</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -7165,22 +7176,24 @@
         <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>22</v>
-      </c>
-      <c r="H83"/>
+        <v>20</v>
+      </c>
+      <c r="H83" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B84" t="n">
-        <v>465431.0</v>
+        <v>465391.0</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
@@ -7197,16 +7210,14 @@
       <c r="G84" t="s">
         <v>21</v>
       </c>
-      <c r="H84" t="s">
-        <v>22</v>
-      </c>
+      <c r="H84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B85" t="n">
-        <v>465484.0</v>
+        <v>465431.0</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
@@ -7215,20 +7226,24 @@
         <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
-      </c>
-      <c r="G85"/>
-      <c r="H85"/>
+        <v>18</v>
+      </c>
+      <c r="G85" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B86" t="n">
-        <v>465644.0</v>
+        <v>465484.0</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
@@ -7237,22 +7252,20 @@
         <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G86"/>
       <c r="H86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B87" t="n">
-        <v>465653.0</v>
+        <v>465644.0</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
@@ -7261,20 +7274,22 @@
         <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87"/>
+        <v>18</v>
+      </c>
+      <c r="G87" t="s">
+        <v>20</v>
+      </c>
       <c r="H87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B88" t="n">
-        <v>465814.0</v>
+        <v>465653.0</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
@@ -7283,24 +7298,20 @@
         <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s">
-        <v>22</v>
-      </c>
-      <c r="H88" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G88"/>
+      <c r="H88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B89" t="n">
-        <v>465850.0</v>
+        <v>465814.0</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
@@ -7309,20 +7320,24 @@
         <v>8</v>
       </c>
       <c r="E89" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89"/>
-      <c r="H89"/>
+        <v>19</v>
+      </c>
+      <c r="G89" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B90" t="n">
-        <v>466433.0</v>
+        <v>465850.0</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
@@ -7336,17 +7351,15 @@
       <c r="F90" t="s">
         <v>20</v>
       </c>
-      <c r="G90" t="s">
-        <v>22</v>
-      </c>
+      <c r="G90"/>
       <c r="H90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B91" t="n">
-        <v>466579.0</v>
+        <v>466433.0</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
@@ -7363,16 +7376,14 @@
       <c r="G91" t="s">
         <v>21</v>
       </c>
-      <c r="H91" t="s">
-        <v>22</v>
-      </c>
+      <c r="H91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B92" t="n">
-        <v>466801.0</v>
+        <v>466579.0</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
@@ -7381,70 +7392,70 @@
         <v>8</v>
       </c>
       <c r="E92" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G92" t="s">
         <v>21</v>
       </c>
-      <c r="H92"/>
+      <c r="H92" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B93" t="n">
-        <v>466803.0</v>
+        <v>466801.0</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E93" t="s">
         <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93"/>
+        <v>18</v>
+      </c>
+      <c r="G93" t="s">
+        <v>21</v>
+      </c>
       <c r="H93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B94" t="n">
-        <v>466831.0</v>
+        <v>466803.0</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E94" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94" t="s">
         <v>19</v>
       </c>
-      <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s">
-        <v>22</v>
-      </c>
-      <c r="H94" t="s">
-        <v>21</v>
-      </c>
+      <c r="G94"/>
+      <c r="H94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B95" t="n">
-        <v>466968.0</v>
+        <v>466831.0</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
@@ -7453,20 +7464,24 @@
         <v>8</v>
       </c>
       <c r="E95" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95"/>
-      <c r="H95"/>
+        <v>19</v>
+      </c>
+      <c r="G95" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B96" t="n">
-        <v>467069.0</v>
+        <v>466968.0</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
@@ -7475,22 +7490,20 @@
         <v>8</v>
       </c>
       <c r="E96" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G96"/>
       <c r="H96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B97" t="n">
-        <v>467189.0</v>
+        <v>467069.0</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
@@ -7499,24 +7512,22 @@
         <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
       </c>
       <c r="G97" t="s">
-        <v>21</v>
-      </c>
-      <c r="H97" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B98" t="n">
-        <v>467214.0</v>
+        <v>467189.0</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
@@ -7525,20 +7536,24 @@
         <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98"/>
-      <c r="H98"/>
+        <v>18</v>
+      </c>
+      <c r="G98" t="s">
+        <v>21</v>
+      </c>
+      <c r="H98" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B99" t="n">
-        <v>467243.0</v>
+        <v>467214.0</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
@@ -7547,20 +7562,20 @@
         <v>8</v>
       </c>
       <c r="E99" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B100" t="n">
-        <v>467436.0</v>
+        <v>467243.0</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
@@ -7569,22 +7584,20 @@
         <v>8</v>
       </c>
       <c r="E100" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G100"/>
       <c r="H100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B101" t="n">
-        <v>467451.0</v>
+        <v>467436.0</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
@@ -7593,20 +7606,22 @@
         <v>8</v>
       </c>
       <c r="E101" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101"/>
+        <v>20</v>
+      </c>
+      <c r="G101" t="s">
+        <v>21</v>
+      </c>
       <c r="H101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B102" t="n">
-        <v>467455.0</v>
+        <v>467451.0</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
@@ -7620,17 +7635,15 @@
       <c r="F102" t="s">
         <v>19</v>
       </c>
-      <c r="G102" t="s">
-        <v>22</v>
-      </c>
+      <c r="G102"/>
       <c r="H102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B103" t="n">
-        <v>467461.0</v>
+        <v>467455.0</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
@@ -7639,24 +7652,22 @@
         <v>8</v>
       </c>
       <c r="E103" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G103" t="s">
-        <v>22</v>
-      </c>
-      <c r="H103" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B104" t="n">
-        <v>467493.0</v>
+        <v>467461.0</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
@@ -7665,24 +7676,24 @@
         <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
       </c>
       <c r="G104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B105" t="n">
-        <v>467497.0</v>
+        <v>467493.0</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
@@ -7694,17 +7705,21 @@
         <v>19</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105"/>
-      <c r="H105"/>
+        <v>18</v>
+      </c>
+      <c r="G105" t="s">
+        <v>21</v>
+      </c>
+      <c r="H105" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B106" t="n">
-        <v>467501.0</v>
+        <v>467497.0</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
@@ -7713,20 +7728,20 @@
         <v>8</v>
       </c>
       <c r="E106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G106"/>
       <c r="H106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B107" t="n">
-        <v>467636.0</v>
+        <v>467501.0</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
@@ -7738,21 +7753,17 @@
         <v>19</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s">
-        <v>22</v>
-      </c>
-      <c r="H107" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G107"/>
+      <c r="H107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B108" t="n">
-        <v>467744.0</v>
+        <v>467636.0</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
@@ -7761,24 +7772,24 @@
         <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F108" t="s">
         <v>19</v>
       </c>
       <c r="G108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B109" t="n">
-        <v>467750.0</v>
+        <v>467744.0</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
@@ -7787,22 +7798,24 @@
         <v>8</v>
       </c>
       <c r="E109" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G109" t="s">
-        <v>22</v>
-      </c>
-      <c r="H109"/>
+        <v>21</v>
+      </c>
+      <c r="H109" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B110" t="n">
-        <v>467765.0</v>
+        <v>467750.0</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -7811,20 +7824,22 @@
         <v>8</v>
       </c>
       <c r="E110" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110"/>
+        <v>20</v>
+      </c>
+      <c r="G110" t="s">
+        <v>21</v>
+      </c>
       <c r="H110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B111" t="n">
-        <v>467775.0</v>
+        <v>467765.0</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
@@ -7833,20 +7848,20 @@
         <v>8</v>
       </c>
       <c r="E111" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G111"/>
       <c r="H111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B112" t="n">
-        <v>467836.0</v>
+        <v>467775.0</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
@@ -7855,20 +7870,20 @@
         <v>8</v>
       </c>
       <c r="E112" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G112"/>
       <c r="H112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B113" t="n">
-        <v>467870.0</v>
+        <v>467836.0</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
@@ -7877,22 +7892,20 @@
         <v>8</v>
       </c>
       <c r="E113" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G113"/>
       <c r="H113"/>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B114" t="n">
-        <v>467873.0</v>
+        <v>467870.0</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
@@ -7901,22 +7914,22 @@
         <v>8</v>
       </c>
       <c r="E114" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H114"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B115" t="n">
-        <v>467940.0</v>
+        <v>467873.0</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
@@ -7925,22 +7938,22 @@
         <v>8</v>
       </c>
       <c r="E115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H115"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B116" t="n">
-        <v>467947.0</v>
+        <v>467940.0</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
@@ -7952,19 +7965,19 @@
         <v>19</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B117" t="n">
-        <v>467963.0</v>
+        <v>467947.0</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
@@ -7973,24 +7986,22 @@
         <v>8</v>
       </c>
       <c r="E117" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G117" t="s">
-        <v>22</v>
-      </c>
-      <c r="H117" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H117"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B118" t="n">
-        <v>467975.0</v>
+        <v>467963.0</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
@@ -7999,72 +8010,76 @@
         <v>8</v>
       </c>
       <c r="E118" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F118" t="s">
         <v>19</v>
       </c>
       <c r="G118" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H118" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B119" t="n">
-        <v>467986.0</v>
+        <v>467975.0</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E119" t="s">
         <v>19</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B120" t="n">
-        <v>468167.0</v>
+        <v>467986.0</v>
       </c>
       <c r="C120" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F120" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120"/>
-      <c r="H120"/>
+        <v>19</v>
+      </c>
+      <c r="G120" t="s">
+        <v>20</v>
+      </c>
+      <c r="H120" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B121" t="n">
-        <v>468178.0</v>
+        <v>468167.0</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
@@ -8073,7 +8088,7 @@
         <v>8</v>
       </c>
       <c r="E121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F121" t="s">
         <v>19</v>
@@ -8083,10 +8098,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B122" t="n">
-        <v>468255.0</v>
+        <v>468178.0</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
@@ -8095,24 +8110,20 @@
         <v>8</v>
       </c>
       <c r="E122" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F122" t="s">
-        <v>19</v>
-      </c>
-      <c r="G122" t="s">
-        <v>21</v>
-      </c>
-      <c r="H122" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G122"/>
+      <c r="H122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B123" t="n">
-        <v>468284.0</v>
+        <v>468255.0</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
@@ -8124,17 +8135,21 @@
         <v>19</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123"/>
-      <c r="H123"/>
+        <v>18</v>
+      </c>
+      <c r="G123" t="s">
+        <v>21</v>
+      </c>
+      <c r="H123" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B124" t="n">
-        <v>468311.0</v>
+        <v>468284.0</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
@@ -8143,24 +8158,20 @@
         <v>8</v>
       </c>
       <c r="E124" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" t="s">
-        <v>22</v>
-      </c>
-      <c r="H124" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G124"/>
+      <c r="H124"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B125" t="n">
-        <v>468546.0</v>
+        <v>468311.0</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
@@ -8169,20 +8180,24 @@
         <v>8</v>
       </c>
       <c r="E125" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F125" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125"/>
-      <c r="H125"/>
+        <v>19</v>
+      </c>
+      <c r="G125" t="s">
+        <v>20</v>
+      </c>
+      <c r="H125" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B126" t="n">
-        <v>468554.0</v>
+        <v>468546.0</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
@@ -8191,20 +8206,20 @@
         <v>8</v>
       </c>
       <c r="E126" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G126"/>
       <c r="H126"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B127" t="n">
-        <v>468607.0</v>
+        <v>468554.0</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
@@ -8213,7 +8228,7 @@
         <v>8</v>
       </c>
       <c r="E127" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F127" t="s">
         <v>21</v>
@@ -8223,10 +8238,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B128" t="n">
-        <v>468643.0</v>
+        <v>468607.0</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
@@ -8235,20 +8250,20 @@
         <v>8</v>
       </c>
       <c r="E128" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G128"/>
       <c r="H128"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B129" t="n">
-        <v>468736.0</v>
+        <v>468643.0</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
@@ -8260,19 +8275,17 @@
         <v>21</v>
       </c>
       <c r="F129" t="s">
-        <v>19</v>
-      </c>
-      <c r="G129" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G129"/>
       <c r="H129"/>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B130" t="n">
-        <v>468763.0</v>
+        <v>468736.0</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
@@ -8281,20 +8294,22 @@
         <v>8</v>
       </c>
       <c r="E130" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F130" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130"/>
+        <v>18</v>
+      </c>
+      <c r="G130" t="s">
+        <v>20</v>
+      </c>
       <c r="H130"/>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B131" t="n">
-        <v>468859.0</v>
+        <v>468763.0</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
@@ -8303,7 +8318,7 @@
         <v>8</v>
       </c>
       <c r="E131" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F131" t="s">
         <v>19</v>
@@ -8313,10 +8328,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B132" t="n">
-        <v>468876.0</v>
+        <v>468859.0</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
@@ -8325,24 +8340,20 @@
         <v>8</v>
       </c>
       <c r="E132" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F132" t="s">
-        <v>19</v>
-      </c>
-      <c r="G132" t="s">
-        <v>21</v>
-      </c>
-      <c r="H132" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G132"/>
+      <c r="H132"/>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B133" t="n">
-        <v>468882.0</v>
+        <v>468876.0</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
@@ -8354,21 +8365,21 @@
         <v>19</v>
       </c>
       <c r="F133" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G133" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B134" t="n">
-        <v>468898.0</v>
+        <v>468882.0</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
@@ -8377,20 +8388,24 @@
         <v>8</v>
       </c>
       <c r="E134" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134"/>
-      <c r="H134"/>
+        <v>19</v>
+      </c>
+      <c r="G134" t="s">
+        <v>20</v>
+      </c>
+      <c r="H134" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B135" t="n">
-        <v>468903.0</v>
+        <v>468898.0</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
@@ -8399,20 +8414,20 @@
         <v>8</v>
       </c>
       <c r="E135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F135" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G135"/>
       <c r="H135"/>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B136" t="n">
-        <v>468961.0</v>
+        <v>468903.0</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
@@ -8421,22 +8436,20 @@
         <v>8</v>
       </c>
       <c r="E136" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G136" t="s">
         <v>19</v>
       </c>
+      <c r="G136"/>
       <c r="H136"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B137" t="n">
-        <v>469129.0</v>
+        <v>468961.0</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
@@ -8445,20 +8458,22 @@
         <v>8</v>
       </c>
       <c r="E137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F137" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137"/>
+        <v>20</v>
+      </c>
+      <c r="G137" t="s">
+        <v>21</v>
+      </c>
       <c r="H137"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B138" t="n">
-        <v>469142.0</v>
+        <v>469129.0</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
@@ -8467,20 +8482,20 @@
         <v>8</v>
       </c>
       <c r="E138" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G138"/>
       <c r="H138"/>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B139" t="n">
-        <v>469186.0</v>
+        <v>469142.0</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
@@ -8489,24 +8504,20 @@
         <v>8</v>
       </c>
       <c r="E139" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" t="s">
-        <v>21</v>
-      </c>
-      <c r="H139" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G139"/>
+      <c r="H139"/>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B140" t="n">
-        <v>469193.0</v>
+        <v>469186.0</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
@@ -8518,21 +8529,21 @@
         <v>19</v>
       </c>
       <c r="F140" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G140" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B141" t="n">
-        <v>469213.0</v>
+        <v>469193.0</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
@@ -8541,20 +8552,24 @@
         <v>8</v>
       </c>
       <c r="E141" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141"/>
-      <c r="H141"/>
+        <v>19</v>
+      </c>
+      <c r="G141" t="s">
+        <v>20</v>
+      </c>
+      <c r="H141" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B142" t="n">
-        <v>469288.0</v>
+        <v>469213.0</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
@@ -8566,21 +8581,17 @@
         <v>20</v>
       </c>
       <c r="F142" t="s">
-        <v>19</v>
-      </c>
-      <c r="G142" t="s">
-        <v>21</v>
-      </c>
-      <c r="H142" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G142"/>
+      <c r="H142"/>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B143" t="n">
-        <v>469327.0</v>
+        <v>469288.0</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
@@ -8589,22 +8600,24 @@
         <v>8</v>
       </c>
       <c r="E143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G143" t="s">
-        <v>22</v>
-      </c>
-      <c r="H143"/>
+        <v>21</v>
+      </c>
+      <c r="H143" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B144" t="n">
-        <v>469351.0</v>
+        <v>469327.0</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
@@ -8616,17 +8629,19 @@
         <v>20</v>
       </c>
       <c r="F144" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144"/>
+        <v>19</v>
+      </c>
+      <c r="G144" t="s">
+        <v>21</v>
+      </c>
       <c r="H144"/>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B145" t="n">
-        <v>469358.0</v>
+        <v>469351.0</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
@@ -8635,22 +8650,20 @@
         <v>8</v>
       </c>
       <c r="E145" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F145" t="s">
-        <v>20</v>
-      </c>
-      <c r="G145" t="s">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G145"/>
       <c r="H145"/>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B146" t="n">
-        <v>469474.0</v>
+        <v>469358.0</v>
       </c>
       <c r="C146" t="s">
         <v>7</v>
@@ -8662,21 +8675,19 @@
         <v>19</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G146" t="s">
-        <v>22</v>
-      </c>
-      <c r="H146" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H146"/>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B147" t="n">
-        <v>469486.0</v>
+        <v>469474.0</v>
       </c>
       <c r="C147" t="s">
         <v>7</v>
@@ -8685,20 +8696,24 @@
         <v>8</v>
       </c>
       <c r="E147" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F147" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147"/>
-      <c r="H147"/>
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>20</v>
+      </c>
+      <c r="H147" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B148" t="n">
-        <v>469625.0</v>
+        <v>469486.0</v>
       </c>
       <c r="C148" t="s">
         <v>7</v>
@@ -8707,24 +8722,20 @@
         <v>8</v>
       </c>
       <c r="E148" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F148" t="s">
-        <v>19</v>
-      </c>
-      <c r="G148" t="s">
-        <v>21</v>
-      </c>
-      <c r="H148" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G148"/>
+      <c r="H148"/>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B149" t="n">
-        <v>469740.0</v>
+        <v>469625.0</v>
       </c>
       <c r="C149" t="s">
         <v>7</v>
@@ -8736,21 +8747,21 @@
         <v>19</v>
       </c>
       <c r="F149" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G149" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H149" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B150" t="n">
-        <v>469823.0</v>
+        <v>469740.0</v>
       </c>
       <c r="C150" t="s">
         <v>7</v>
@@ -8759,20 +8770,24 @@
         <v>8</v>
       </c>
       <c r="E150" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F150" t="s">
-        <v>22</v>
-      </c>
-      <c r="G150"/>
-      <c r="H150"/>
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>20</v>
+      </c>
+      <c r="H150" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B151" t="n">
-        <v>469857.0</v>
+        <v>469823.0</v>
       </c>
       <c r="C151" t="s">
         <v>7</v>
@@ -8786,17 +8801,15 @@
       <c r="F151" t="s">
         <v>19</v>
       </c>
-      <c r="G151" t="s">
-        <v>22</v>
-      </c>
+      <c r="G151"/>
       <c r="H151"/>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B152" t="n">
-        <v>469975.0</v>
+        <v>469857.0</v>
       </c>
       <c r="C152" t="s">
         <v>7</v>
@@ -8808,21 +8821,19 @@
         <v>20</v>
       </c>
       <c r="F152" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G152" t="s">
         <v>21</v>
       </c>
-      <c r="H152" t="s">
-        <v>22</v>
-      </c>
+      <c r="H152"/>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B153" t="n">
-        <v>470129.0</v>
+        <v>469975.0</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
@@ -8831,20 +8842,24 @@
         <v>8</v>
       </c>
       <c r="E153" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F153" t="s">
-        <v>21</v>
-      </c>
-      <c r="G153"/>
-      <c r="H153"/>
+        <v>18</v>
+      </c>
+      <c r="G153" t="s">
+        <v>21</v>
+      </c>
+      <c r="H153" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B154" t="n">
-        <v>470144.0</v>
+        <v>470129.0</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
@@ -8853,20 +8868,20 @@
         <v>8</v>
       </c>
       <c r="E154" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F154" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G154"/>
       <c r="H154"/>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B155" t="n">
-        <v>470282.0</v>
+        <v>470144.0</v>
       </c>
       <c r="C155" t="s">
         <v>7</v>
@@ -8875,24 +8890,20 @@
         <v>8</v>
       </c>
       <c r="E155" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F155" t="s">
-        <v>20</v>
-      </c>
-      <c r="G155" t="s">
-        <v>22</v>
-      </c>
-      <c r="H155" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G155"/>
+      <c r="H155"/>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B156" t="n">
-        <v>470290.0</v>
+        <v>470282.0</v>
       </c>
       <c r="C156" t="s">
         <v>7</v>
@@ -8901,20 +8912,24 @@
         <v>8</v>
       </c>
       <c r="E156" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F156" t="s">
         <v>19</v>
       </c>
-      <c r="G156"/>
-      <c r="H156"/>
+      <c r="G156" t="s">
+        <v>20</v>
+      </c>
+      <c r="H156" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B157" t="n">
-        <v>470309.0</v>
+        <v>470290.0</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
@@ -8923,20 +8938,20 @@
         <v>8</v>
       </c>
       <c r="E157" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F157" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G157"/>
       <c r="H157"/>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B158" t="n">
-        <v>470373.0</v>
+        <v>470309.0</v>
       </c>
       <c r="C158" t="s">
         <v>7</v>
@@ -8950,17 +8965,15 @@
       <c r="F158" t="s">
         <v>21</v>
       </c>
-      <c r="G158" t="s">
-        <v>22</v>
-      </c>
+      <c r="G158"/>
       <c r="H158"/>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B159" t="n">
-        <v>470405.0</v>
+        <v>470373.0</v>
       </c>
       <c r="C159" t="s">
         <v>7</v>
@@ -8969,20 +8982,22 @@
         <v>8</v>
       </c>
       <c r="E159" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F159" t="s">
-        <v>22</v>
-      </c>
-      <c r="G159"/>
+        <v>20</v>
+      </c>
+      <c r="G159" t="s">
+        <v>18</v>
+      </c>
       <c r="H159"/>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B160" t="n">
-        <v>470467.0</v>
+        <v>470405.0</v>
       </c>
       <c r="C160" t="s">
         <v>7</v>
@@ -8991,22 +9006,20 @@
         <v>8</v>
       </c>
       <c r="E160" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F160" t="s">
-        <v>19</v>
-      </c>
-      <c r="G160" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G160"/>
       <c r="H160"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B161" t="n">
-        <v>470488.0</v>
+        <v>470467.0</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
@@ -9015,22 +9028,22 @@
         <v>8</v>
       </c>
       <c r="E161" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F161" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G161" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H161"/>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B162" t="n">
-        <v>470638.0</v>
+        <v>470488.0</v>
       </c>
       <c r="C162" t="s">
         <v>7</v>
@@ -9039,20 +9052,22 @@
         <v>8</v>
       </c>
       <c r="E162" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F162" t="s">
-        <v>22</v>
-      </c>
-      <c r="G162"/>
+        <v>20</v>
+      </c>
+      <c r="G162" t="s">
+        <v>21</v>
+      </c>
       <c r="H162"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B163" t="n">
-        <v>470668.0</v>
+        <v>470638.0</v>
       </c>
       <c r="C163" t="s">
         <v>7</v>
@@ -9061,20 +9076,20 @@
         <v>8</v>
       </c>
       <c r="E163" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F163" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G163"/>
       <c r="H163"/>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B164" t="n">
-        <v>470754.0</v>
+        <v>470668.0</v>
       </c>
       <c r="C164" t="s">
         <v>7</v>
@@ -9083,22 +9098,20 @@
         <v>8</v>
       </c>
       <c r="E164" t="s">
+        <v>21</v>
+      </c>
+      <c r="F164" t="s">
         <v>19</v>
       </c>
-      <c r="F164" t="s">
-        <v>21</v>
-      </c>
-      <c r="G164" t="s">
-        <v>22</v>
-      </c>
+      <c r="G164"/>
       <c r="H164"/>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B165" t="n">
-        <v>470773.0</v>
+        <v>470754.0</v>
       </c>
       <c r="C165" t="s">
         <v>7</v>
@@ -9107,24 +9120,22 @@
         <v>8</v>
       </c>
       <c r="E165" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F165" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G165" t="s">
-        <v>21</v>
-      </c>
-      <c r="H165" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H165"/>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B166" t="n">
-        <v>470782.0</v>
+        <v>470773.0</v>
       </c>
       <c r="C166" t="s">
         <v>7</v>
@@ -9136,21 +9147,21 @@
         <v>19</v>
       </c>
       <c r="F166" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G166" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H166" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B167" t="n">
-        <v>470830.0</v>
+        <v>470782.0</v>
       </c>
       <c r="C167" t="s">
         <v>7</v>
@@ -9159,20 +9170,24 @@
         <v>8</v>
       </c>
       <c r="E167" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F167" t="s">
         <v>19</v>
       </c>
-      <c r="G167"/>
-      <c r="H167"/>
+      <c r="G167" t="s">
+        <v>20</v>
+      </c>
+      <c r="H167" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B168" t="n">
-        <v>470859.0</v>
+        <v>470830.0</v>
       </c>
       <c r="C168" t="s">
         <v>7</v>
@@ -9181,22 +9196,20 @@
         <v>8</v>
       </c>
       <c r="E168" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F168" t="s">
-        <v>19</v>
-      </c>
-      <c r="G168" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G168"/>
       <c r="H168"/>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B169" t="n">
-        <v>470921.0</v>
+        <v>470859.0</v>
       </c>
       <c r="C169" t="s">
         <v>7</v>
@@ -9205,20 +9218,22 @@
         <v>8</v>
       </c>
       <c r="E169" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F169" t="s">
         <v>21</v>
       </c>
-      <c r="G169"/>
+      <c r="G169" t="s">
+        <v>18</v>
+      </c>
       <c r="H169"/>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B170" t="n">
-        <v>471016.0</v>
+        <v>470921.0</v>
       </c>
       <c r="C170" t="s">
         <v>7</v>
@@ -9227,20 +9242,20 @@
         <v>8</v>
       </c>
       <c r="E170" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F170" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G170"/>
       <c r="H170"/>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B171" t="n">
-        <v>471028.0</v>
+        <v>471016.0</v>
       </c>
       <c r="C171" t="s">
         <v>7</v>
@@ -9249,24 +9264,20 @@
         <v>8</v>
       </c>
       <c r="E171" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F171" t="s">
-        <v>19</v>
-      </c>
-      <c r="G171" t="s">
-        <v>21</v>
-      </c>
-      <c r="H171" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G171"/>
+      <c r="H171"/>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B172" t="n">
-        <v>471129.0</v>
+        <v>471028.0</v>
       </c>
       <c r="C172" t="s">
         <v>7</v>
@@ -9278,17 +9289,21 @@
         <v>19</v>
       </c>
       <c r="F172" t="s">
-        <v>22</v>
-      </c>
-      <c r="G172"/>
-      <c r="H172"/>
+        <v>18</v>
+      </c>
+      <c r="G172" t="s">
+        <v>21</v>
+      </c>
+      <c r="H172" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B173" t="n">
-        <v>471229.0</v>
+        <v>471129.0</v>
       </c>
       <c r="C173" t="s">
         <v>7</v>
@@ -9297,20 +9312,20 @@
         <v>8</v>
       </c>
       <c r="E173" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F173" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G173"/>
       <c r="H173"/>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B174" t="n">
-        <v>471255.0</v>
+        <v>471229.0</v>
       </c>
       <c r="C174" t="s">
         <v>7</v>
@@ -9319,20 +9334,20 @@
         <v>8</v>
       </c>
       <c r="E174" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F174" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G174"/>
       <c r="H174"/>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B175" t="n">
-        <v>471263.0</v>
+        <v>471255.0</v>
       </c>
       <c r="C175" t="s">
         <v>7</v>
@@ -9344,19 +9359,17 @@
         <v>21</v>
       </c>
       <c r="F175" t="s">
-        <v>22</v>
-      </c>
-      <c r="G175" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G175"/>
       <c r="H175"/>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B176" t="n">
-        <v>471492.0</v>
+        <v>471263.0</v>
       </c>
       <c r="C176" t="s">
         <v>7</v>
@@ -9365,20 +9378,22 @@
         <v>8</v>
       </c>
       <c r="E176" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F176" t="s">
-        <v>21</v>
-      </c>
-      <c r="G176"/>
+        <v>20</v>
+      </c>
+      <c r="G176" t="s">
+        <v>21</v>
+      </c>
       <c r="H176"/>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B177" t="n">
-        <v>471545.0</v>
+        <v>471492.0</v>
       </c>
       <c r="C177" t="s">
         <v>7</v>
@@ -9387,22 +9402,20 @@
         <v>8</v>
       </c>
       <c r="E177" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F177" t="s">
         <v>21</v>
       </c>
-      <c r="G177" t="s">
-        <v>22</v>
-      </c>
+      <c r="G177"/>
       <c r="H177"/>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B178" t="n">
-        <v>471760.0</v>
+        <v>471545.0</v>
       </c>
       <c r="C178" t="s">
         <v>7</v>
@@ -9414,17 +9427,19 @@
         <v>21</v>
       </c>
       <c r="F178" t="s">
-        <v>22</v>
-      </c>
-      <c r="G178"/>
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
+        <v>20</v>
+      </c>
       <c r="H178"/>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B179" t="n">
-        <v>472004.0</v>
+        <v>471760.0</v>
       </c>
       <c r="C179" t="s">
         <v>7</v>
@@ -9433,20 +9448,20 @@
         <v>8</v>
       </c>
       <c r="E179" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F179" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G179"/>
       <c r="H179"/>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B180" t="n">
-        <v>472145.0</v>
+        <v>472004.0</v>
       </c>
       <c r="C180" t="s">
         <v>7</v>
@@ -9455,22 +9470,20 @@
         <v>8</v>
       </c>
       <c r="E180" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F180" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G180"/>
       <c r="H180"/>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B181" t="n">
-        <v>472434.0</v>
+        <v>472145.0</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
@@ -9479,20 +9492,22 @@
         <v>8</v>
       </c>
       <c r="E181" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F181" t="s">
-        <v>22</v>
-      </c>
-      <c r="G181"/>
+        <v>20</v>
+      </c>
+      <c r="G181" t="s">
+        <v>21</v>
+      </c>
       <c r="H181"/>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B182" t="n">
-        <v>472501.0</v>
+        <v>472434.0</v>
       </c>
       <c r="C182" t="s">
         <v>7</v>
@@ -9501,24 +9516,20 @@
         <v>8</v>
       </c>
       <c r="E182" t="s">
+        <v>21</v>
+      </c>
+      <c r="F182" t="s">
         <v>19</v>
       </c>
-      <c r="F182" t="s">
-        <v>20</v>
-      </c>
-      <c r="G182" t="s">
-        <v>22</v>
-      </c>
-      <c r="H182" t="s">
-        <v>21</v>
-      </c>
+      <c r="G182"/>
+      <c r="H182"/>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B183" t="n">
-        <v>472537.0</v>
+        <v>472501.0</v>
       </c>
       <c r="C183" t="s">
         <v>7</v>
@@ -9527,20 +9538,24 @@
         <v>8</v>
       </c>
       <c r="E183" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F183" t="s">
         <v>19</v>
       </c>
-      <c r="G183"/>
-      <c r="H183"/>
+      <c r="G183" t="s">
+        <v>20</v>
+      </c>
+      <c r="H183" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B184" t="n">
-        <v>472782.0</v>
+        <v>472537.0</v>
       </c>
       <c r="C184" t="s">
         <v>7</v>
@@ -9549,22 +9564,20 @@
         <v>8</v>
       </c>
       <c r="E184" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F184" t="s">
-        <v>19</v>
-      </c>
-      <c r="G184" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G184"/>
       <c r="H184"/>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B185" t="n">
-        <v>472962.0</v>
+        <v>472782.0</v>
       </c>
       <c r="C185" t="s">
         <v>7</v>
@@ -9573,20 +9586,22 @@
         <v>8</v>
       </c>
       <c r="E185" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F185" t="s">
         <v>21</v>
       </c>
-      <c r="G185"/>
+      <c r="G185" t="s">
+        <v>18</v>
+      </c>
       <c r="H185"/>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B186" t="n">
-        <v>473195.0</v>
+        <v>472962.0</v>
       </c>
       <c r="C186" t="s">
         <v>7</v>
@@ -9595,22 +9610,20 @@
         <v>8</v>
       </c>
       <c r="E186" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F186" t="s">
         <v>21</v>
       </c>
-      <c r="G186" t="s">
-        <v>20</v>
-      </c>
+      <c r="G186"/>
       <c r="H186"/>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B187" t="n">
-        <v>473215.0</v>
+        <v>473195.0</v>
       </c>
       <c r="C187" t="s">
         <v>7</v>
@@ -9619,22 +9632,22 @@
         <v>8</v>
       </c>
       <c r="E187" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F187" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G187" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H187"/>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B188" t="n">
-        <v>473482.0</v>
+        <v>473215.0</v>
       </c>
       <c r="C188" t="s">
         <v>7</v>
@@ -9643,20 +9656,22 @@
         <v>8</v>
       </c>
       <c r="E188" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F188" t="s">
-        <v>22</v>
-      </c>
-      <c r="G188"/>
+        <v>20</v>
+      </c>
+      <c r="G188" t="s">
+        <v>21</v>
+      </c>
       <c r="H188"/>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B189" t="n">
-        <v>473708.0</v>
+        <v>473482.0</v>
       </c>
       <c r="C189" t="s">
         <v>7</v>
@@ -9665,22 +9680,20 @@
         <v>8</v>
       </c>
       <c r="E189" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F189" t="s">
-        <v>21</v>
-      </c>
-      <c r="G189" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G189"/>
       <c r="H189"/>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B190" t="n">
-        <v>473899.0</v>
+        <v>473708.0</v>
       </c>
       <c r="C190" t="s">
         <v>7</v>
@@ -9689,20 +9702,22 @@
         <v>8</v>
       </c>
       <c r="E190" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F190" t="s">
-        <v>21</v>
-      </c>
-      <c r="G190"/>
+        <v>18</v>
+      </c>
+      <c r="G190" t="s">
+        <v>20</v>
+      </c>
       <c r="H190"/>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B191" t="n">
-        <v>475115.0</v>
+        <v>473899.0</v>
       </c>
       <c r="C191" t="s">
         <v>7</v>
@@ -9711,20 +9726,20 @@
         <v>8</v>
       </c>
       <c r="E191" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F191" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G191"/>
       <c r="H191"/>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B192" t="n">
-        <v>476008.0</v>
+        <v>475115.0</v>
       </c>
       <c r="C192" t="s">
         <v>7</v>
@@ -9736,17 +9751,17 @@
         <v>21</v>
       </c>
       <c r="F192" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G192"/>
       <c r="H192"/>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B193" t="n">
-        <v>476289.0</v>
+        <v>476008.0</v>
       </c>
       <c r="C193" t="s">
         <v>7</v>
@@ -9755,20 +9770,20 @@
         <v>8</v>
       </c>
       <c r="E193" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F193" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G193"/>
       <c r="H193"/>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B194" t="n">
-        <v>476531.0</v>
+        <v>476289.0</v>
       </c>
       <c r="C194" t="s">
         <v>7</v>
@@ -9777,20 +9792,20 @@
         <v>8</v>
       </c>
       <c r="E194" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F194" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G194"/>
       <c r="H194"/>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B195" t="n">
-        <v>476883.0</v>
+        <v>476531.0</v>
       </c>
       <c r="C195" t="s">
         <v>7</v>
@@ -9799,22 +9814,20 @@
         <v>8</v>
       </c>
       <c r="E195" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F195" t="s">
         <v>21</v>
       </c>
-      <c r="G195" t="s">
-        <v>22</v>
-      </c>
+      <c r="G195"/>
       <c r="H195"/>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B196" t="n">
-        <v>477153.0</v>
+        <v>476883.0</v>
       </c>
       <c r="C196" t="s">
         <v>7</v>
@@ -9823,20 +9836,22 @@
         <v>8</v>
       </c>
       <c r="E196" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F196" t="s">
-        <v>22</v>
-      </c>
-      <c r="G196"/>
+        <v>19</v>
+      </c>
+      <c r="G196" t="s">
+        <v>21</v>
+      </c>
       <c r="H196"/>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B197" t="n">
-        <v>477738.0</v>
+        <v>477153.0</v>
       </c>
       <c r="C197" t="s">
         <v>7</v>
@@ -9845,20 +9860,20 @@
         <v>8</v>
       </c>
       <c r="E197" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G197"/>
       <c r="H197"/>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B198" t="n">
-        <v>478406.0</v>
+        <v>477738.0</v>
       </c>
       <c r="C198" t="s">
         <v>7</v>
@@ -9870,21 +9885,17 @@
         <v>20</v>
       </c>
       <c r="F198" t="s">
-        <v>19</v>
-      </c>
-      <c r="G198" t="s">
-        <v>21</v>
-      </c>
-      <c r="H198" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G198"/>
+      <c r="H198"/>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B199" t="n">
-        <v>478589.0</v>
+        <v>478406.0</v>
       </c>
       <c r="C199" t="s">
         <v>7</v>
@@ -9893,20 +9904,24 @@
         <v>8</v>
       </c>
       <c r="E199" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F199" t="s">
-        <v>19</v>
-      </c>
-      <c r="G199"/>
-      <c r="H199"/>
+        <v>18</v>
+      </c>
+      <c r="G199" t="s">
+        <v>21</v>
+      </c>
+      <c r="H199" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B200" t="n">
-        <v>479276.0</v>
+        <v>478589.0</v>
       </c>
       <c r="C200" t="s">
         <v>7</v>
@@ -9915,24 +9930,20 @@
         <v>8</v>
       </c>
       <c r="E200" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F200" t="s">
-        <v>20</v>
-      </c>
-      <c r="G200" t="s">
-        <v>22</v>
-      </c>
-      <c r="H200" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G200"/>
+      <c r="H200"/>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B201" t="n">
-        <v>479658.0</v>
+        <v>479276.0</v>
       </c>
       <c r="C201" t="s">
         <v>7</v>
@@ -9941,37 +9952,63 @@
         <v>8</v>
       </c>
       <c r="E201" t="s">
+        <v>18</v>
+      </c>
+      <c r="F201" t="s">
         <v>19</v>
       </c>
-      <c r="F201" t="s">
-        <v>22</v>
-      </c>
-      <c r="G201"/>
-      <c r="H201"/>
+      <c r="G201" t="s">
+        <v>20</v>
+      </c>
+      <c r="H201" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B202" t="n">
+        <v>479658.0</v>
+      </c>
+      <c r="C202" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202" t="s">
+        <v>21</v>
+      </c>
+      <c r="F202" t="s">
+        <v>18</v>
+      </c>
+      <c r="G202"/>
+      <c r="H202"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>56</v>
+      </c>
+      <c r="B203" t="n">
         <v>987654.0</v>
       </c>
-      <c r="C202" t="s">
-        <v>7</v>
-      </c>
-      <c r="D202" t="s">
-        <v>8</v>
-      </c>
-      <c r="E202" t="s">
-        <v>22</v>
-      </c>
-      <c r="F202" t="s">
-        <v>19</v>
-      </c>
-      <c r="G202" t="s">
-        <v>21</v>
-      </c>
-      <c r="H202"/>
+      <c r="C203" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" t="s">
+        <v>20</v>
+      </c>
+      <c r="F203" t="s">
+        <v>21</v>
+      </c>
+      <c r="G203" t="s">
+        <v>18</v>
+      </c>
+      <c r="H203"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/application/data/StudentData.xlsx
+++ b/application/data/StudentData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mecha\Documents\GitHub\Invited-Meeting-Scheduler\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692E7367-6E20-47E0-A774-28EC514D2D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D83EAF-3A2B-4247-9C4A-9A4F0BAC76B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="2190" windowWidth="13260" windowHeight="11385" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="2340" windowWidth="13260" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="1" r:id="rId1"/>
-    <sheet name="ScheduleData" r:id="rId6" sheetId="2"/>
+    <sheet name="ScheduleData" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31612" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27235" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -65,36 +65,6 @@
   </si>
   <si>
     <t>w</t>
-  </si>
-  <si>
-    <t>Rotations Needed</t>
-  </si>
-  <si>
-    <t>ROT1</t>
-  </si>
-  <si>
-    <t>ROT2</t>
-  </si>
-  <si>
-    <t>ROT3</t>
-  </si>
-  <si>
-    <t>ROT4</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>GL</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>c</t>
@@ -148,18 +118,6 @@
     <t>Rosa M. Parks Middle School</t>
   </si>
   <si>
-    <t>Global, Humanities, SMCS</t>
-  </si>
-  <si>
-    <t>Global, Humanities</t>
-  </si>
-  <si>
-    <t>Global, SMCS</t>
-  </si>
-  <si>
-    <t>Humanities, SMCS</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
@@ -169,31 +127,52 @@
     <t>g</t>
   </si>
   <si>
-    <t>1SMCS</t>
+    <t>ww</t>
   </si>
   <si>
-    <t>3Global, Humanities, SMCS</t>
+    <t>rgg</t>
   </si>
   <si>
-    <t>2Global, Humanities</t>
+    <t>dgsv</t>
   </si>
   <si>
-    <t>1Global</t>
+    <t>jffnb</t>
   </si>
   <si>
-    <t>1Humanities</t>
+    <t>tjftnntd</t>
   </si>
   <si>
-    <t>2Global, SMCS</t>
+    <t>Rotations Needed</t>
   </si>
   <si>
-    <t>2Humanities, SMCS</t>
+    <t>ROT1</t>
+  </si>
+  <si>
+    <t>ROT2</t>
+  </si>
+  <si>
+    <t>ROT3</t>
+  </si>
+  <si>
+    <t>ROT4</t>
   </si>
   <si>
     <t>1 Rotations: SMCS</t>
   </si>
   <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>3 Rotations: Global, Humanities, SMCS</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>GL</t>
   </si>
   <si>
     <t>2 Rotations: Global, Humanities</t>
@@ -209,6 +188,12 @@
   </si>
   <si>
     <t>2 Rotations: Humanities, SMCS</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>efa</t>
   </si>
 </sst>
 </file>
@@ -545,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G203"/>
+  <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -676,13 +661,13 @@
         <v>123456</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -1412,13 +1397,13 @@
         <v>213456</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -1435,13 +1420,13 @@
         <v>215351</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
@@ -1527,13 +1512,13 @@
         <v>234539</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -1706,93 +1691,93 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51">
+      <c r="A51" t="n">
+        <v>351353.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>353515</v>
       </c>
-      <c r="B51" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>406490</v>
-      </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>409089</v>
+      <c r="A53">
+        <v>353621</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>411168</v>
+        <v>406490</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>10</v>
@@ -1800,7 +1785,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>417688</v>
+        <v>409089</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -1811,8 +1796,8 @@
       <c r="D55" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>9</v>
+      <c r="E55" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1823,30 +1808,30 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>419371</v>
+        <v>411168</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>419659</v>
+        <v>417688</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -1857,19 +1842,19 @@
       <c r="D57" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>10</v>
+      <c r="E57" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>420119</v>
+        <v>419371</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -1881,7 +1866,7 @@
         <v>7</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1892,7 +1877,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>436542</v>
+        <v>419659</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -1910,12 +1895,12 @@
         <v>9</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>439155</v>
+        <v>420119</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -1927,18 +1912,18 @@
         <v>7</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>441021</v>
+        <v>436542</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -1961,7 +1946,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>442262</v>
+        <v>439155</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -1976,15 +1961,15 @@
         <v>10</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>442931</v>
+        <v>441021</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -1995,19 +1980,19 @@
       <c r="D63" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>9</v>
+      <c r="E63" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>443257</v>
+        <v>442262</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
@@ -2018,19 +2003,19 @@
       <c r="D64" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>9</v>
+      <c r="E64" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>446253</v>
+        <v>442931</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -2041,19 +2026,19 @@
       <c r="D65" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>448013</v>
+        <v>443257</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
@@ -2064,19 +2049,19 @@
       <c r="D66" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>9</v>
+      <c r="E66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>452390</v>
+        <v>446253</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -2093,13 +2078,13 @@
       <c r="F67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>9</v>
+      <c r="G67" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>452992</v>
+        <v>448013</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
@@ -2113,7 +2098,7 @@
       <c r="E68" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G68" s="3" t="s">
@@ -2122,7 +2107,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>454280</v>
+        <v>452390</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
@@ -2134,7 +2119,7 @@
         <v>7</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -2145,7 +2130,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>454287</v>
+        <v>452992</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
@@ -2159,16 +2144,16 @@
       <c r="E70" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>10</v>
+      <c r="F70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>454745</v>
+        <v>454280</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -2179,11 +2164,11 @@
       <c r="D71" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>9</v>
+      <c r="E71" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>9</v>
@@ -2191,7 +2176,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>454770</v>
+        <v>454287</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -2203,10 +2188,10 @@
         <v>7</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>10</v>
@@ -2214,7 +2199,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>455839</v>
+        <v>454745</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
@@ -2225,19 +2210,19 @@
       <c r="D73" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>10</v>
+      <c r="E73" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>461540</v>
+        <v>454770</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
@@ -2249,18 +2234,18 @@
         <v>7</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>462838</v>
+        <v>455839</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
@@ -2277,36 +2262,36 @@
       <c r="F75" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>463462</v>
+      <c r="A76" s="1">
+        <v>461540</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>39</v>
-      </c>
-      <c r="E76" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>463934</v>
+        <v>462838</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -2317,42 +2302,42 @@
       <c r="D77" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>9</v>
+      <c r="E77" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>464863</v>
+      <c r="A78">
+        <v>463462</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>465018</v>
+        <v>463934</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -2363,19 +2348,19 @@
       <c r="D79" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="3" t="s">
+      <c r="E79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>465085</v>
+        <v>464863</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -2387,10 +2372,10 @@
         <v>7</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>9</v>
@@ -2398,7 +2383,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>465090</v>
+        <v>465018</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -2412,7 +2397,7 @@
       <c r="E81" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G81" s="3" t="s">
@@ -2421,7 +2406,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>465141</v>
+        <v>465085</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -2436,15 +2421,15 @@
         <v>10</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>465275</v>
+        <v>465090</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -2456,18 +2441,18 @@
         <v>7</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>465391</v>
+        <v>465141</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -2479,18 +2464,18 @@
         <v>7</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>465431</v>
+        <v>465275</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -2501,10 +2486,10 @@
       <c r="D85" t="s">
         <v>7</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="3" t="s">
+      <c r="E85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G85" s="2" t="s">
@@ -2513,7 +2498,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>465484</v>
+        <v>465391</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -2525,7 +2510,7 @@
         <v>7</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2536,7 +2521,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>465644</v>
+        <v>465431</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -2547,19 +2532,19 @@
       <c r="D87" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" s="3" t="s">
+      <c r="E87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>465653</v>
+        <v>465484</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -2582,7 +2567,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>465814</v>
+        <v>465644</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -2594,18 +2579,18 @@
         <v>7</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="G89" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>465850</v>
+        <v>465653</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -2619,7 +2604,7 @@
       <c r="E90" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G90" s="2" t="s">
@@ -2628,7 +2613,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>466433</v>
+        <v>465814</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -2639,19 +2624,19 @@
       <c r="D91" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" s="3" t="s">
+      <c r="E91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>466579</v>
+        <v>465850</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -2663,18 +2648,18 @@
         <v>7</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>466801</v>
+        <v>466433</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -2685,42 +2670,42 @@
       <c r="D93" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>9</v>
+      <c r="E93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>466803</v>
+      <c r="A94" s="1">
+        <v>466579</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
-      </c>
-      <c r="E94" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>466831</v>
+        <v>466801</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -2732,41 +2717,41 @@
         <v>7</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="G95" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>466968</v>
+      <c r="A96">
+        <v>466803</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>467069</v>
+        <v>466831</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -2781,15 +2766,15 @@
         <v>9</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>467189</v>
+        <v>466968</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -2801,18 +2786,18 @@
         <v>7</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>467214</v>
+        <v>467069</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
@@ -2823,19 +2808,19 @@
       <c r="D99" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>10</v>
+      <c r="G99" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>467243</v>
+        <v>467189</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -2847,18 +2832,18 @@
         <v>7</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>10</v>
+      <c r="G100" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>467436</v>
+        <v>467214</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -2869,19 +2854,19 @@
       <c r="D101" t="s">
         <v>7</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>10</v>
+      <c r="E101" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>467451</v>
+        <v>467243</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
@@ -2892,11 +2877,11 @@
       <c r="D102" t="s">
         <v>7</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
+      <c r="E102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>10</v>
@@ -2904,7 +2889,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>467455</v>
+        <v>467436</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
@@ -2927,7 +2912,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>467461</v>
+        <v>467451</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -2938,19 +2923,19 @@
       <c r="D104" t="s">
         <v>7</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>467493</v>
+        <v>467455</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -2962,18 +2947,18 @@
         <v>7</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>467497</v>
+        <v>467461</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -2985,18 +2970,18 @@
         <v>7</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>467501</v>
+        <v>467493</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -3010,16 +2995,16 @@
       <c r="E107" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>10</v>
+      <c r="F107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>467636</v>
+        <v>467497</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -3031,10 +3016,10 @@
         <v>7</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>9</v>
@@ -3042,7 +3027,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>467744</v>
+        <v>467501</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -3053,19 +3038,19 @@
       <c r="D109" t="s">
         <v>7</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>467750</v>
+        <v>467636</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -3076,19 +3061,19 @@
       <c r="D110" t="s">
         <v>7</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>10</v>
+      <c r="E110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>467765</v>
+        <v>467744</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -3099,19 +3084,19 @@
       <c r="D111" t="s">
         <v>7</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>10</v>
+      <c r="E111" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>467775</v>
+        <v>467750</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -3122,8 +3107,8 @@
       <c r="D112" t="s">
         <v>7</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>10</v>
+      <c r="E112" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>9</v>
@@ -3134,7 +3119,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>467836</v>
+        <v>467765</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -3148,7 +3133,7 @@
       <c r="E113" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="F113" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G113" s="2" t="s">
@@ -3157,7 +3142,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>467870</v>
+        <v>467775</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -3175,12 +3160,12 @@
         <v>9</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>467873</v>
+        <v>467836</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -3192,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>9</v>
@@ -3203,7 +3188,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>467940</v>
+        <v>467870</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -3214,19 +3199,19 @@
       <c r="D116" t="s">
         <v>7</v>
       </c>
-      <c r="E116" s="3" t="s">
-        <v>9</v>
+      <c r="E116" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>467947</v>
+        <v>467873</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -3238,18 +3223,18 @@
         <v>7</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>467963</v>
+        <v>467940</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -3260,19 +3245,19 @@
       <c r="D118" t="s">
         <v>7</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>467975</v>
+        <v>467947</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -3284,41 +3269,41 @@
         <v>7</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G119" s="3" t="s">
+      <c r="G119" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>467986</v>
+        <v>467963</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="G120" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>468167</v>
+        <v>467975</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -3333,38 +3318,38 @@
         <v>9</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>468178</v>
+        <v>467986</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D122" t="s">
         <v>7</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>10</v>
+      <c r="E122" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>468255</v>
+        <v>468167</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
@@ -3379,15 +3364,15 @@
         <v>9</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>468284</v>
+        <v>468178</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
@@ -3410,7 +3395,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>468311</v>
+        <v>468255</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
@@ -3433,7 +3418,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>468546</v>
+        <v>468284</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
@@ -3448,15 +3433,15 @@
         <v>10</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>468554</v>
+        <v>468311</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
@@ -3471,15 +3456,15 @@
         <v>9</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>468607</v>
+        <v>468546</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
@@ -3502,7 +3487,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>468643</v>
+        <v>468554</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
@@ -3514,10 +3499,10 @@
         <v>7</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>10</v>
@@ -3525,7 +3510,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>468736</v>
+        <v>468607</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
@@ -3539,16 +3524,16 @@
       <c r="E130" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F130" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>9</v>
+      <c r="F130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>468763</v>
+        <v>468643</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
@@ -3560,10 +3545,10 @@
         <v>7</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>10</v>
@@ -3571,7 +3556,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>468859</v>
+        <v>468736</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
@@ -3585,8 +3570,8 @@
       <c r="E132" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
+      <c r="F132" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>9</v>
@@ -3594,7 +3579,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>468876</v>
+        <v>468763</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
@@ -3608,16 +3593,16 @@
       <c r="E133" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F133" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>9</v>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>468882</v>
+        <v>468859</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
@@ -3629,10 +3614,10 @@
         <v>7</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>9</v>
@@ -3640,7 +3625,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>468898</v>
+        <v>468876</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
@@ -3654,16 +3639,16 @@
       <c r="E135" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>10</v>
+      <c r="F135" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>468903</v>
+        <v>468882</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
@@ -3674,19 +3659,19 @@
       <c r="D136" t="s">
         <v>7</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="4">
-        <v>468961</v>
+      <c r="A137" s="1">
+        <v>468898</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -3698,18 +3683,18 @@
         <v>7</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>469129</v>
+        <v>468903</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -3720,19 +3705,19 @@
       <c r="D138" t="s">
         <v>7</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>10</v>
+      <c r="E138" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G138" s="3" t="s">
-        <v>9</v>
+      <c r="G138" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>469142</v>
+      <c r="A139" s="4">
+        <v>468961</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -3747,15 +3732,15 @@
         <v>10</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G139" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>469186</v>
+        <v>469129</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -3767,18 +3752,18 @@
         <v>7</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>469193</v>
+        <v>469142</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
@@ -3789,11 +3774,11 @@
       <c r="D141" t="s">
         <v>7</v>
       </c>
-      <c r="E141" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>9</v>
+      <c r="E141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>9</v>
@@ -3801,7 +3786,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>469213</v>
+        <v>469186</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -3813,18 +3798,18 @@
         <v>7</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>469288</v>
+        <v>469193</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -3835,10 +3820,10 @@
       <c r="D143" t="s">
         <v>7</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" s="2" t="s">
+      <c r="E143" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G143" s="2" t="s">
@@ -3846,8 +3831,8 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="4">
-        <v>469327</v>
+      <c r="A144" s="1">
+        <v>469213</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
@@ -3859,7 +3844,7 @@
         <v>7</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>9</v>
@@ -3870,7 +3855,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>469351</v>
+        <v>469288</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -3885,15 +3870,15 @@
         <v>9</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>469358</v>
+      <c r="A146" s="4">
+        <v>469327</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
@@ -3904,19 +3889,19 @@
       <c r="D146" t="s">
         <v>7</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>469474</v>
+        <v>469351</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -3931,15 +3916,15 @@
         <v>9</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>469486</v>
+        <v>469358</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
@@ -3950,19 +3935,19 @@
       <c r="D148" t="s">
         <v>7</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>10</v>
+      <c r="E148" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>469625</v>
+        <v>469474</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
@@ -3979,13 +3964,13 @@
       <c r="F149" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G149" s="2" t="s">
+      <c r="G149" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>469740</v>
+        <v>469486</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
@@ -3997,18 +3982,18 @@
         <v>7</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F150" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>469823</v>
+        <v>469625</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
@@ -4023,15 +4008,15 @@
         <v>9</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>469857</v>
+        <v>469740</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
@@ -4043,9 +4028,9 @@
         <v>7</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G152" s="2" t="s">
@@ -4054,7 +4039,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>469975</v>
+        <v>469823</v>
       </c>
       <c r="B153" t="s">
         <v>7</v>
@@ -4069,15 +4054,15 @@
         <v>9</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>470129</v>
+        <v>469857</v>
       </c>
       <c r="B154" t="s">
         <v>7</v>
@@ -4095,12 +4080,12 @@
         <v>9</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>470144</v>
+        <v>469975</v>
       </c>
       <c r="B155" t="s">
         <v>7</v>
@@ -4112,10 +4097,10 @@
         <v>7</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>9</v>
@@ -4123,7 +4108,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>470282</v>
+        <v>470129</v>
       </c>
       <c r="B156" t="s">
         <v>7</v>
@@ -4135,18 +4120,18 @@
         <v>7</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>470290</v>
+        <v>470144</v>
       </c>
       <c r="B157" t="s">
         <v>7</v>
@@ -4163,13 +4148,13 @@
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G157" s="3" t="s">
+      <c r="G157" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>470309</v>
+        <v>470282</v>
       </c>
       <c r="B158" t="s">
         <v>7</v>
@@ -4184,15 +4169,15 @@
         <v>9</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>470373</v>
+        <v>470290</v>
       </c>
       <c r="B159" t="s">
         <v>7</v>
@@ -4207,15 +4192,15 @@
         <v>10</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>470405</v>
+        <v>470309</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
@@ -4227,18 +4212,18 @@
         <v>7</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G160" s="3" t="s">
-        <v>9</v>
+      <c r="G160" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>470467</v>
+        <v>470373</v>
       </c>
       <c r="B161" t="s">
         <v>7</v>
@@ -4261,7 +4246,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>470488</v>
+        <v>470405</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
@@ -4275,16 +4260,16 @@
       <c r="E162" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F162" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G162" s="2" t="s">
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>470638</v>
+        <v>470467</v>
       </c>
       <c r="B163" t="s">
         <v>7</v>
@@ -4298,16 +4283,16 @@
       <c r="E163" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F163" s="3" t="s">
+      <c r="F163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>470668</v>
+        <v>470488</v>
       </c>
       <c r="B164" t="s">
         <v>7</v>
@@ -4319,18 +4304,18 @@
         <v>7</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>470754</v>
+        <v>470638</v>
       </c>
       <c r="B165" t="s">
         <v>7</v>
@@ -4347,13 +4332,13 @@
       <c r="F165" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G165" s="3" t="s">
-        <v>9</v>
+      <c r="G165" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>470773</v>
+        <v>470668</v>
       </c>
       <c r="B166" t="s">
         <v>7</v>
@@ -4368,15 +4353,15 @@
         <v>9</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>470782</v>
+        <v>470754</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
@@ -4388,18 +4373,18 @@
         <v>7</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G167" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>470830</v>
+        <v>470773</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
@@ -4411,18 +4396,18 @@
         <v>7</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>470859</v>
+        <v>470782</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
@@ -4434,7 +4419,7 @@
         <v>7</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>9</v>
@@ -4445,7 +4430,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>470921</v>
+        <v>470830</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
@@ -4460,15 +4445,15 @@
         <v>10</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>471016</v>
+        <v>470859</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
@@ -4486,12 +4471,12 @@
         <v>9</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>471028</v>
+        <v>470921</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -4502,19 +4487,19 @@
       <c r="D172" t="s">
         <v>7</v>
       </c>
-      <c r="E172" s="3" t="s">
-        <v>9</v>
+      <c r="E172" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G172" s="3" t="s">
-        <v>9</v>
+      <c r="G172" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>471129</v>
+        <v>471016</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -4529,15 +4514,15 @@
         <v>10</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>471229</v>
+        <v>471028</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
@@ -4548,19 +4533,19 @@
       <c r="D174" t="s">
         <v>7</v>
       </c>
-      <c r="E174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>10</v>
+      <c r="E174" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>471255</v>
+        <v>471129</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
@@ -4575,15 +4560,15 @@
         <v>10</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>471263</v>
+        <v>471229</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
@@ -4597,16 +4582,16 @@
       <c r="E176" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F176" s="2" t="s">
+      <c r="F176" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>471492</v>
+        <v>471255</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
@@ -4629,7 +4614,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>471545</v>
+        <v>471263</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
@@ -4652,7 +4637,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>471760</v>
+        <v>471492</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
@@ -4675,7 +4660,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>472004</v>
+        <v>471545</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
@@ -4687,18 +4672,18 @@
         <v>7</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>472145</v>
+        <v>471760</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
@@ -4710,7 +4695,7 @@
         <v>7</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>9</v>
@@ -4721,7 +4706,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>472434</v>
+        <v>472004</v>
       </c>
       <c r="B182" t="s">
         <v>7</v>
@@ -4744,7 +4729,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>472501</v>
+        <v>472145</v>
       </c>
       <c r="B183" t="s">
         <v>7</v>
@@ -4762,12 +4747,12 @@
         <v>9</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>472537</v>
+        <v>472434</v>
       </c>
       <c r="B184" t="s">
         <v>7</v>
@@ -4779,18 +4764,18 @@
         <v>7</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G184" s="3" t="s">
-        <v>9</v>
+      <c r="G184" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>472782</v>
+        <v>472501</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
@@ -4802,7 +4787,7 @@
         <v>7</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>9</v>
@@ -4813,7 +4798,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>472962</v>
+        <v>472537</v>
       </c>
       <c r="B186" t="s">
         <v>7</v>
@@ -4827,16 +4812,16 @@
       <c r="E186" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F186" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>10</v>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>473195</v>
+        <v>472782</v>
       </c>
       <c r="B187" t="s">
         <v>7</v>
@@ -4848,18 +4833,18 @@
         <v>7</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>473215</v>
+        <v>472962</v>
       </c>
       <c r="B188" t="s">
         <v>7</v>
@@ -4873,16 +4858,16 @@
       <c r="E188" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F188" s="2" t="s">
+      <c r="F188" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>473482</v>
+        <v>473195</v>
       </c>
       <c r="B189" t="s">
         <v>7</v>
@@ -4894,7 +4879,7 @@
         <v>7</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>9</v>
@@ -4905,7 +4890,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>473708</v>
+        <v>473215</v>
       </c>
       <c r="B190" t="s">
         <v>7</v>
@@ -4928,7 +4913,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>473899</v>
+        <v>473482</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
@@ -4951,7 +4936,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>475115</v>
+        <v>473708</v>
       </c>
       <c r="B192" t="s">
         <v>7</v>
@@ -4966,7 +4951,7 @@
         <v>10</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>9</v>
@@ -4974,7 +4959,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>476008</v>
+        <v>473899</v>
       </c>
       <c r="B193" t="s">
         <v>7</v>
@@ -4997,7 +4982,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>476289</v>
+        <v>475115</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
@@ -5011,16 +4996,16 @@
       <c r="E194" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F194" s="3" t="s">
-        <v>9</v>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>476531</v>
+        <v>476008</v>
       </c>
       <c r="B195" t="s">
         <v>7</v>
@@ -5032,10 +5017,10 @@
         <v>7</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>10</v>
@@ -5043,7 +5028,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>476883</v>
+        <v>476289</v>
       </c>
       <c r="B196" t="s">
         <v>7</v>
@@ -5055,9 +5040,9 @@
         <v>7</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F196" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G196" s="2" t="s">
@@ -5066,7 +5051,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>477153</v>
+        <v>476531</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
@@ -5078,10 +5063,10 @@
         <v>7</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>10</v>
@@ -5089,7 +5074,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>477738</v>
+        <v>476883</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
@@ -5101,7 +5086,7 @@
         <v>7</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -5112,7 +5097,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>478406</v>
+        <v>477153</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
@@ -5124,18 +5109,18 @@
         <v>7</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>478589</v>
+        <v>477738</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
@@ -5150,15 +5135,15 @@
         <v>10</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>479276</v>
+        <v>478406</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
@@ -5181,47 +5166,116 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
+        <v>478589</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>479276</v>
+      </c>
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
         <v>479658</v>
       </c>
-      <c r="B202" t="s">
-        <v>7</v>
-      </c>
-      <c r="C202" t="s">
-        <v>8</v>
-      </c>
-      <c r="D202" t="s">
-        <v>7</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>532682</v>
+      </c>
+      <c r="B205" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" t="s">
+        <v>33</v>
+      </c>
+      <c r="D205" t="s">
+        <v>34</v>
+      </c>
+      <c r="E205" t="s">
+        <v>9</v>
+      </c>
+      <c r="F205" t="s">
+        <v>9</v>
+      </c>
+      <c r="G205" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206">
         <v>987654</v>
       </c>
-      <c r="B203" t="s">
-        <v>7</v>
-      </c>
-      <c r="C203" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203" t="s">
-        <v>23</v>
-      </c>
-      <c r="E203" t="s">
-        <v>10</v>
-      </c>
-      <c r="F203" t="s">
-        <v>9</v>
-      </c>
-      <c r="G203" t="s">
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" t="s">
+        <v>13</v>
+      </c>
+      <c r="E206" t="s">
+        <v>10</v>
+      </c>
+      <c r="F206" t="s">
+        <v>9</v>
+      </c>
+      <c r="G206" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5232,7 +5286,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5240,7 +5294,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5252,21 +5306,21 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B2" t="n">
         <v>111111.0</v>
@@ -5278,17 +5332,17 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B3" t="n">
         <v>122534.0</v>
@@ -5300,21 +5354,21 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B4" t="n">
         <v>122789.0</v>
@@ -5326,19 +5380,19 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B5" t="n">
         <v>122873.0</v>
@@ -5350,41 +5404,41 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B6" t="n">
         <v>123456.0</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
         <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B7" t="n">
         <v>123788.0</v>
@@ -5396,17 +5450,17 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B8" t="n">
         <v>130892.0</v>
@@ -5418,21 +5472,21 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B9" t="n">
         <v>132394.0</v>
@@ -5444,17 +5498,17 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B10" t="n">
         <v>132532.0</v>
@@ -5466,17 +5520,17 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B11" t="n">
         <v>132853.0</v>
@@ -5488,17 +5542,17 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B12" t="n">
         <v>134333.0</v>
@@ -5510,17 +5564,17 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B13" t="n">
         <v>134390.0</v>
@@ -5532,21 +5586,21 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B14" t="n">
         <v>135062.0</v>
@@ -5558,17 +5612,17 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B15" t="n">
         <v>137940.0</v>
@@ -5580,21 +5634,21 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B16" t="n">
         <v>140093.0</v>
@@ -5606,19 +5660,19 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B17" t="n">
         <v>140892.0</v>
@@ -5630,17 +5684,17 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B18" t="n">
         <v>142310.0</v>
@@ -5652,21 +5706,21 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n">
         <v>146632.0</v>
@@ -5678,19 +5732,19 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
         <v>156681.0</v>
@@ -5702,17 +5756,17 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B21" t="n">
         <v>161618.0</v>
@@ -5724,17 +5778,17 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B22" t="n">
         <v>168329.0</v>
@@ -5746,17 +5800,17 @@
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B23" t="n">
         <v>169650.0</v>
@@ -5768,17 +5822,17 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B24" t="n">
         <v>173425.0</v>
@@ -5790,17 +5844,17 @@
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B25" t="n">
         <v>178071.0</v>
@@ -5812,19 +5866,19 @@
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B26" t="n">
         <v>178156.0</v>
@@ -5836,17 +5890,17 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B27" t="n">
         <v>181903.0</v>
@@ -5858,21 +5912,21 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B28" t="n">
         <v>182120.0</v>
@@ -5884,17 +5938,17 @@
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B29" t="n">
         <v>186663.0</v>
@@ -5906,21 +5960,21 @@
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B30" t="n">
         <v>187393.0</v>
@@ -5932,19 +5986,19 @@
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B31" t="n">
         <v>190029.0</v>
@@ -5956,19 +6010,19 @@
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B32" t="n">
         <v>194574.0</v>
@@ -5980,17 +6034,17 @@
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B33" t="n">
         <v>198048.0</v>
@@ -6002,19 +6056,19 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B34" t="n">
         <v>198741.0</v>
@@ -6026,17 +6080,17 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B35" t="n">
         <v>199787.0</v>
@@ -6048,21 +6102,21 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B36" t="n">
         <v>200672.0</v>
@@ -6074,17 +6128,17 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B37" t="n">
         <v>210938.0</v>
@@ -6096,71 +6150,71 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B38" t="n">
         <v>213456.0</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B39" t="n">
         <v>215351.0</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="H39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B40" t="n">
         <v>225969.0</v>
@@ -6172,17 +6226,17 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B41" t="n">
         <v>231348.0</v>
@@ -6194,19 +6248,19 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B42" t="n">
         <v>232461.0</v>
@@ -6218,39 +6272,39 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B43" t="n">
         <v>234539.0</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G43"/>
       <c r="H43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B44" t="n">
         <v>257317.0</v>
@@ -6262,17 +6316,17 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B45" t="n">
         <v>276682.0</v>
@@ -6284,17 +6338,17 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G45"/>
       <c r="H45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B46" t="n">
         <v>278390.0</v>
@@ -6306,17 +6360,17 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n">
         <v>292270.0</v>
@@ -6328,17 +6382,17 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n">
         <v>292271.0</v>
@@ -6350,17 +6404,17 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B49" t="n">
         <v>299774.0</v>
@@ -6372,17 +6426,17 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B50" t="n">
         <v>299880.0</v>
@@ -6394,68 +6448,68 @@
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n">
         <v>353515.0</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E51" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="H51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>406490.0</v>
+        <v>353621.0</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G52" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>409089.0</v>
+        <v>406490.0</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -6464,66 +6518,66 @@
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53"/>
+        <v>45</v>
+      </c>
+      <c r="G53" t="s">
+        <v>44</v>
+      </c>
       <c r="H53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B54" t="n">
-        <v>411168.0</v>
+        <v>409089.0</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B55" t="n">
-        <v>417688.0</v>
+        <v>411168.0</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>21</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G55"/>
       <c r="H55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B56" t="n">
-        <v>419371.0</v>
+        <v>417688.0</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -6532,22 +6586,22 @@
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="H56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B57" t="n">
-        <v>419659.0</v>
+        <v>419371.0</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -6556,22 +6610,22 @@
         <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G57" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="H57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B58" t="n">
-        <v>420119.0</v>
+        <v>419659.0</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -6580,24 +6634,22 @@
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G58" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58" t="s">
-        <v>20</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B59" t="n">
-        <v>436542.0</v>
+        <v>420119.0</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -6606,20 +6658,24 @@
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59"/>
-      <c r="H59"/>
+        <v>47</v>
+      </c>
+      <c r="G59" t="s">
+        <v>44</v>
+      </c>
+      <c r="H59" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B60" t="n">
-        <v>439155.0</v>
+        <v>436542.0</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -6628,20 +6684,20 @@
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B61" t="n">
-        <v>441021.0</v>
+        <v>439155.0</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -6650,20 +6706,20 @@
         <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B62" t="n">
-        <v>442262.0</v>
+        <v>441021.0</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -6672,20 +6728,20 @@
         <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B63" t="n">
-        <v>442931.0</v>
+        <v>442262.0</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -6694,24 +6750,20 @@
         <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
-      <c r="H63" t="s">
-        <v>21</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B64" t="n">
-        <v>443257.0</v>
+        <v>442931.0</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -6720,22 +6772,24 @@
         <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G64" t="s">
-        <v>21</v>
-      </c>
-      <c r="H64"/>
+        <v>48</v>
+      </c>
+      <c r="H64" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B65" t="n">
-        <v>446253.0</v>
+        <v>443257.0</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -6744,22 +6798,22 @@
         <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="H65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B66" t="n">
-        <v>448013.0</v>
+        <v>446253.0</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -6768,22 +6822,22 @@
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G66" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="H66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B67" t="n">
-        <v>452390.0</v>
+        <v>448013.0</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -6792,24 +6846,22 @@
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G67" t="s">
-        <v>21</v>
-      </c>
-      <c r="H67" t="s">
-        <v>20</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B68" t="n">
-        <v>452992.0</v>
+        <v>452390.0</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -6818,22 +6870,24 @@
         <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G68" t="s">
-        <v>18</v>
-      </c>
-      <c r="H68"/>
+        <v>44</v>
+      </c>
+      <c r="H68" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B69" t="n">
-        <v>454280.0</v>
+        <v>452992.0</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -6842,22 +6896,22 @@
         <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G69" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B70" t="n">
-        <v>454287.0</v>
+        <v>454280.0</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
@@ -6866,20 +6920,22 @@
         <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70"/>
+        <v>44</v>
+      </c>
+      <c r="G70" t="s">
+        <v>47</v>
+      </c>
       <c r="H70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B71" t="n">
-        <v>454745.0</v>
+        <v>454287.0</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
@@ -6888,22 +6944,20 @@
         <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>21</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G71"/>
       <c r="H71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B72" t="n">
-        <v>454770.0</v>
+        <v>454745.0</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -6912,20 +6966,22 @@
         <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72"/>
+        <v>45</v>
+      </c>
+      <c r="G72" t="s">
+        <v>47</v>
+      </c>
       <c r="H72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B73" t="n">
-        <v>455839.0</v>
+        <v>454770.0</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
@@ -6934,22 +6990,20 @@
         <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>18</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G73"/>
       <c r="H73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B74" t="n">
-        <v>461540.0</v>
+        <v>455839.0</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
@@ -6958,22 +7012,22 @@
         <v>8</v>
       </c>
       <c r="E74" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="H74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B75" t="n">
-        <v>462838.0</v>
+        <v>461540.0</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
@@ -6982,72 +7036,70 @@
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G75" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B76" t="n">
-        <v>463462.0</v>
+        <v>462838.0</v>
       </c>
       <c r="C76" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B77" t="n">
-        <v>463934.0</v>
+        <v>463462.0</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G77" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" t="s">
-        <v>21</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B78" t="n">
-        <v>464863.0</v>
+        <v>463934.0</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
@@ -7056,24 +7108,24 @@
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="H78" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B79" t="n">
-        <v>465018.0</v>
+        <v>464863.0</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
@@ -7082,22 +7134,24 @@
         <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G79" t="s">
-        <v>21</v>
-      </c>
-      <c r="H79"/>
+        <v>44</v>
+      </c>
+      <c r="H79" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B80" t="n">
-        <v>465085.0</v>
+        <v>465018.0</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
@@ -7106,20 +7160,22 @@
         <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80"/>
+        <v>47</v>
+      </c>
+      <c r="G80" t="s">
+        <v>44</v>
+      </c>
       <c r="H80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B81" t="n">
-        <v>465090.0</v>
+        <v>465085.0</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -7128,22 +7184,20 @@
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>21</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G81"/>
       <c r="H81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B82" t="n">
-        <v>465141.0</v>
+        <v>465090.0</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
@@ -7152,22 +7206,22 @@
         <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G82" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B83" t="n">
-        <v>465275.0</v>
+        <v>465141.0</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -7176,24 +7230,22 @@
         <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G83" t="s">
-        <v>20</v>
-      </c>
-      <c r="H83" t="s">
-        <v>21</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B84" t="n">
-        <v>465391.0</v>
+        <v>465275.0</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
@@ -7202,22 +7254,24 @@
         <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G84" t="s">
-        <v>21</v>
-      </c>
-      <c r="H84"/>
+        <v>48</v>
+      </c>
+      <c r="H84" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B85" t="n">
-        <v>465431.0</v>
+        <v>465391.0</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
@@ -7226,24 +7280,22 @@
         <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G85" t="s">
-        <v>21</v>
-      </c>
-      <c r="H85" t="s">
-        <v>20</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B86" t="n">
-        <v>465484.0</v>
+        <v>465431.0</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
@@ -7252,20 +7304,24 @@
         <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86"/>
-      <c r="H86"/>
+        <v>47</v>
+      </c>
+      <c r="G86" t="s">
+        <v>44</v>
+      </c>
+      <c r="H86" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B87" t="n">
-        <v>465644.0</v>
+        <v>465484.0</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
@@ -7274,22 +7330,20 @@
         <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>20</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G87"/>
       <c r="H87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B88" t="n">
-        <v>465653.0</v>
+        <v>465644.0</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
@@ -7298,20 +7352,22 @@
         <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88"/>
+        <v>47</v>
+      </c>
+      <c r="G88" t="s">
+        <v>44</v>
+      </c>
       <c r="H88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B89" t="n">
-        <v>465814.0</v>
+        <v>465653.0</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
@@ -7320,24 +7376,20 @@
         <v>8</v>
       </c>
       <c r="E89" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" t="s">
-        <v>20</v>
-      </c>
-      <c r="H89" t="s">
-        <v>21</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G89"/>
+      <c r="H89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B90" t="n">
-        <v>465850.0</v>
+        <v>465814.0</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
@@ -7346,20 +7398,24 @@
         <v>8</v>
       </c>
       <c r="E90" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90"/>
-      <c r="H90"/>
+        <v>45</v>
+      </c>
+      <c r="G90" t="s">
+        <v>48</v>
+      </c>
+      <c r="H90" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B91" t="n">
-        <v>466433.0</v>
+        <v>465850.0</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
@@ -7368,22 +7424,20 @@
         <v>8</v>
       </c>
       <c r="E91" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s">
-        <v>21</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G91"/>
       <c r="H91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B92" t="n">
-        <v>466579.0</v>
+        <v>466433.0</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
@@ -7392,24 +7446,22 @@
         <v>8</v>
       </c>
       <c r="E92" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G92" t="s">
-        <v>21</v>
-      </c>
-      <c r="H92" t="s">
-        <v>20</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B93" t="n">
-        <v>466801.0</v>
+        <v>466579.0</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
@@ -7418,70 +7470,70 @@
         <v>8</v>
       </c>
       <c r="E93" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G93" t="s">
-        <v>21</v>
-      </c>
-      <c r="H93"/>
+        <v>44</v>
+      </c>
+      <c r="H93" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B94" t="n">
-        <v>466803.0</v>
+        <v>466801.0</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E94" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94"/>
+        <v>48</v>
+      </c>
+      <c r="G94" t="s">
+        <v>44</v>
+      </c>
       <c r="H94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B95" t="n">
-        <v>466831.0</v>
+        <v>466803.0</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s">
-        <v>20</v>
-      </c>
-      <c r="H95" t="s">
-        <v>21</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G95"/>
+      <c r="H95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B96" t="n">
-        <v>466968.0</v>
+        <v>466831.0</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
@@ -7490,20 +7542,24 @@
         <v>8</v>
       </c>
       <c r="E96" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96"/>
-      <c r="H96"/>
+        <v>45</v>
+      </c>
+      <c r="G96" t="s">
+        <v>48</v>
+      </c>
+      <c r="H96" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B97" t="n">
-        <v>467069.0</v>
+        <v>466968.0</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
@@ -7512,22 +7568,20 @@
         <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s">
-        <v>18</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G97"/>
       <c r="H97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B98" t="n">
-        <v>467189.0</v>
+        <v>467069.0</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
@@ -7536,24 +7590,22 @@
         <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G98" t="s">
-        <v>21</v>
-      </c>
-      <c r="H98" t="s">
-        <v>20</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B99" t="n">
-        <v>467214.0</v>
+        <v>467189.0</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
@@ -7562,20 +7614,24 @@
         <v>8</v>
       </c>
       <c r="E99" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99"/>
-      <c r="H99"/>
+        <v>47</v>
+      </c>
+      <c r="G99" t="s">
+        <v>44</v>
+      </c>
+      <c r="H99" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B100" t="n">
-        <v>467243.0</v>
+        <v>467214.0</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
@@ -7584,20 +7640,20 @@
         <v>8</v>
       </c>
       <c r="E100" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G100"/>
       <c r="H100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B101" t="n">
-        <v>467436.0</v>
+        <v>467243.0</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
@@ -7606,22 +7662,20 @@
         <v>8</v>
       </c>
       <c r="E101" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" t="s">
-        <v>21</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G101"/>
       <c r="H101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B102" t="n">
-        <v>467451.0</v>
+        <v>467436.0</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
@@ -7630,20 +7684,22 @@
         <v>8</v>
       </c>
       <c r="E102" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102"/>
+        <v>47</v>
+      </c>
+      <c r="G102" t="s">
+        <v>48</v>
+      </c>
       <c r="H102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B103" t="n">
-        <v>467455.0</v>
+        <v>467451.0</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
@@ -7652,22 +7708,20 @@
         <v>8</v>
       </c>
       <c r="E103" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>20</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G103"/>
       <c r="H103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B104" t="n">
-        <v>467461.0</v>
+        <v>467455.0</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
@@ -7676,24 +7730,22 @@
         <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F104" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G104" t="s">
-        <v>20</v>
-      </c>
-      <c r="H104" t="s">
-        <v>21</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B105" t="n">
-        <v>467493.0</v>
+        <v>467461.0</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
@@ -7702,24 +7754,24 @@
         <v>8</v>
       </c>
       <c r="E105" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G105" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="H105" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B106" t="n">
-        <v>467497.0</v>
+        <v>467493.0</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
@@ -7728,20 +7780,24 @@
         <v>8</v>
       </c>
       <c r="E106" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106"/>
-      <c r="H106"/>
+        <v>47</v>
+      </c>
+      <c r="G106" t="s">
+        <v>44</v>
+      </c>
+      <c r="H106" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B107" t="n">
-        <v>467501.0</v>
+        <v>467497.0</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
@@ -7750,20 +7806,20 @@
         <v>8</v>
       </c>
       <c r="E107" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G107"/>
       <c r="H107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B108" t="n">
-        <v>467636.0</v>
+        <v>467501.0</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
@@ -7772,24 +7828,20 @@
         <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="s">
-        <v>20</v>
-      </c>
-      <c r="H108" t="s">
-        <v>21</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G108"/>
+      <c r="H108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B109" t="n">
-        <v>467744.0</v>
+        <v>467636.0</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
@@ -7798,24 +7850,24 @@
         <v>8</v>
       </c>
       <c r="E109" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G109" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="H109" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B110" t="n">
-        <v>467750.0</v>
+        <v>467744.0</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -7824,22 +7876,24 @@
         <v>8</v>
       </c>
       <c r="E110" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G110" t="s">
-        <v>21</v>
-      </c>
-      <c r="H110"/>
+        <v>44</v>
+      </c>
+      <c r="H110" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B111" t="n">
-        <v>467765.0</v>
+        <v>467750.0</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
@@ -7848,20 +7902,22 @@
         <v>8</v>
       </c>
       <c r="E111" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111"/>
+        <v>45</v>
+      </c>
+      <c r="G111" t="s">
+        <v>44</v>
+      </c>
       <c r="H111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B112" t="n">
-        <v>467775.0</v>
+        <v>467765.0</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
@@ -7870,20 +7926,20 @@
         <v>8</v>
       </c>
       <c r="E112" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G112"/>
       <c r="H112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B113" t="n">
-        <v>467836.0</v>
+        <v>467775.0</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
@@ -7892,20 +7948,20 @@
         <v>8</v>
       </c>
       <c r="E113" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="G113"/>
       <c r="H113"/>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B114" t="n">
-        <v>467870.0</v>
+        <v>467836.0</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
@@ -7914,22 +7970,20 @@
         <v>8</v>
       </c>
       <c r="E114" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" t="s">
-        <v>21</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G114"/>
       <c r="H114"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B115" t="n">
-        <v>467873.0</v>
+        <v>467870.0</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
@@ -7938,22 +7992,22 @@
         <v>8</v>
       </c>
       <c r="E115" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G115" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H115"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B116" t="n">
-        <v>467940.0</v>
+        <v>467873.0</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
@@ -7962,22 +8016,22 @@
         <v>8</v>
       </c>
       <c r="E116" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G116" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B117" t="n">
-        <v>467947.0</v>
+        <v>467940.0</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
@@ -7986,22 +8040,22 @@
         <v>8</v>
       </c>
       <c r="E117" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G117" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H117"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B118" t="n">
-        <v>467963.0</v>
+        <v>467947.0</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
@@ -8010,24 +8064,22 @@
         <v>8</v>
       </c>
       <c r="E118" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F118" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G118" t="s">
-        <v>20</v>
-      </c>
-      <c r="H118" t="s">
-        <v>21</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B119" t="n">
-        <v>467975.0</v>
+        <v>467963.0</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
@@ -8036,72 +8088,76 @@
         <v>8</v>
       </c>
       <c r="E119" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G119" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="H119" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B120" t="n">
-        <v>467986.0</v>
+        <v>467975.0</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E120" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G120" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H120" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B121" t="n">
-        <v>468167.0</v>
+        <v>467986.0</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121"/>
-      <c r="H121"/>
+        <v>45</v>
+      </c>
+      <c r="G121" t="s">
+        <v>48</v>
+      </c>
+      <c r="H121" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B122" t="n">
-        <v>468178.0</v>
+        <v>468167.0</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
@@ -8110,20 +8166,20 @@
         <v>8</v>
       </c>
       <c r="E122" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G122"/>
       <c r="H122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B123" t="n">
-        <v>468255.0</v>
+        <v>468178.0</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
@@ -8132,24 +8188,20 @@
         <v>8</v>
       </c>
       <c r="E123" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>21</v>
-      </c>
-      <c r="H123" t="s">
-        <v>20</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G123"/>
+      <c r="H123"/>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B124" t="n">
-        <v>468284.0</v>
+        <v>468255.0</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
@@ -8158,20 +8210,24 @@
         <v>8</v>
       </c>
       <c r="E124" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124"/>
-      <c r="H124"/>
+        <v>47</v>
+      </c>
+      <c r="G124" t="s">
+        <v>44</v>
+      </c>
+      <c r="H124" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B125" t="n">
-        <v>468311.0</v>
+        <v>468284.0</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
@@ -8180,24 +8236,20 @@
         <v>8</v>
       </c>
       <c r="E125" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s">
-        <v>20</v>
-      </c>
-      <c r="H125" t="s">
-        <v>21</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G125"/>
+      <c r="H125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B126" t="n">
-        <v>468546.0</v>
+        <v>468311.0</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
@@ -8206,20 +8258,24 @@
         <v>8</v>
       </c>
       <c r="E126" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126"/>
-      <c r="H126"/>
+        <v>45</v>
+      </c>
+      <c r="G126" t="s">
+        <v>48</v>
+      </c>
+      <c r="H126" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B127" t="n">
-        <v>468554.0</v>
+        <v>468546.0</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
@@ -8228,20 +8284,20 @@
         <v>8</v>
       </c>
       <c r="E127" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="G127"/>
       <c r="H127"/>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B128" t="n">
-        <v>468607.0</v>
+        <v>468554.0</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
@@ -8250,20 +8306,20 @@
         <v>8</v>
       </c>
       <c r="E128" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G128"/>
       <c r="H128"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B129" t="n">
-        <v>468643.0</v>
+        <v>468607.0</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
@@ -8272,20 +8328,20 @@
         <v>8</v>
       </c>
       <c r="E129" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G129"/>
       <c r="H129"/>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B130" t="n">
-        <v>468736.0</v>
+        <v>468643.0</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
@@ -8294,22 +8350,20 @@
         <v>8</v>
       </c>
       <c r="E130" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>20</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G130"/>
       <c r="H130"/>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B131" t="n">
-        <v>468763.0</v>
+        <v>468736.0</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
@@ -8318,20 +8372,22 @@
         <v>8</v>
       </c>
       <c r="E131" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131"/>
+        <v>48</v>
+      </c>
+      <c r="G131" t="s">
+        <v>44</v>
+      </c>
       <c r="H131"/>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B132" t="n">
-        <v>468859.0</v>
+        <v>468763.0</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
@@ -8340,20 +8396,20 @@
         <v>8</v>
       </c>
       <c r="E132" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G132"/>
       <c r="H132"/>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B133" t="n">
-        <v>468876.0</v>
+        <v>468859.0</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
@@ -8362,24 +8418,20 @@
         <v>8</v>
       </c>
       <c r="E133" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s">
-        <v>21</v>
-      </c>
-      <c r="H133" t="s">
-        <v>20</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G133"/>
+      <c r="H133"/>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B134" t="n">
-        <v>468882.0</v>
+        <v>468876.0</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
@@ -8388,24 +8440,24 @@
         <v>8</v>
       </c>
       <c r="E134" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F134" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G134" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H134" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B135" t="n">
-        <v>468898.0</v>
+        <v>468882.0</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
@@ -8414,20 +8466,24 @@
         <v>8</v>
       </c>
       <c r="E135" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135"/>
-      <c r="H135"/>
+        <v>45</v>
+      </c>
+      <c r="G135" t="s">
+        <v>48</v>
+      </c>
+      <c r="H135" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B136" t="n">
-        <v>468903.0</v>
+        <v>468898.0</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
@@ -8436,20 +8492,20 @@
         <v>8</v>
       </c>
       <c r="E136" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F136" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="G136"/>
       <c r="H136"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B137" t="n">
-        <v>468961.0</v>
+        <v>468903.0</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
@@ -8458,22 +8514,20 @@
         <v>8</v>
       </c>
       <c r="E137" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F137" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" t="s">
-        <v>21</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G137"/>
       <c r="H137"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B138" t="n">
-        <v>469129.0</v>
+        <v>468961.0</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
@@ -8482,20 +8536,22 @@
         <v>8</v>
       </c>
       <c r="E138" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138"/>
+        <v>47</v>
+      </c>
+      <c r="G138" t="s">
+        <v>44</v>
+      </c>
       <c r="H138"/>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B139" t="n">
-        <v>469142.0</v>
+        <v>469129.0</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
@@ -8504,20 +8560,20 @@
         <v>8</v>
       </c>
       <c r="E139" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G139"/>
       <c r="H139"/>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B140" t="n">
-        <v>469186.0</v>
+        <v>469142.0</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
@@ -8526,24 +8582,20 @@
         <v>8</v>
       </c>
       <c r="E140" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s">
-        <v>21</v>
-      </c>
-      <c r="H140" t="s">
-        <v>20</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G140"/>
+      <c r="H140"/>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B141" t="n">
-        <v>469193.0</v>
+        <v>469186.0</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
@@ -8552,24 +8604,24 @@
         <v>8</v>
       </c>
       <c r="E141" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G141" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H141" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B142" t="n">
-        <v>469213.0</v>
+        <v>469193.0</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
@@ -8578,20 +8630,24 @@
         <v>8</v>
       </c>
       <c r="E142" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142"/>
-      <c r="H142"/>
+        <v>45</v>
+      </c>
+      <c r="G142" t="s">
+        <v>48</v>
+      </c>
+      <c r="H142" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B143" t="n">
-        <v>469288.0</v>
+        <v>469213.0</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
@@ -8600,24 +8656,20 @@
         <v>8</v>
       </c>
       <c r="E143" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s">
-        <v>21</v>
-      </c>
-      <c r="H143" t="s">
-        <v>20</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G143"/>
+      <c r="H143"/>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B144" t="n">
-        <v>469327.0</v>
+        <v>469288.0</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
@@ -8626,22 +8678,24 @@
         <v>8</v>
       </c>
       <c r="E144" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F144" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G144" t="s">
-        <v>21</v>
-      </c>
-      <c r="H144"/>
+        <v>44</v>
+      </c>
+      <c r="H144" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B145" t="n">
-        <v>469351.0</v>
+        <v>469327.0</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
@@ -8650,20 +8704,22 @@
         <v>8</v>
       </c>
       <c r="E145" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F145" t="s">
-        <v>21</v>
-      </c>
-      <c r="G145"/>
+        <v>48</v>
+      </c>
+      <c r="G145" t="s">
+        <v>44</v>
+      </c>
       <c r="H145"/>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B146" t="n">
-        <v>469358.0</v>
+        <v>469351.0</v>
       </c>
       <c r="C146" t="s">
         <v>7</v>
@@ -8672,22 +8728,20 @@
         <v>8</v>
       </c>
       <c r="E146" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
-        <v>21</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G146"/>
       <c r="H146"/>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B147" t="n">
-        <v>469474.0</v>
+        <v>469358.0</v>
       </c>
       <c r="C147" t="s">
         <v>7</v>
@@ -8696,24 +8750,22 @@
         <v>8</v>
       </c>
       <c r="E147" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F147" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G147" t="s">
-        <v>20</v>
-      </c>
-      <c r="H147" t="s">
-        <v>21</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H147"/>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B148" t="n">
-        <v>469486.0</v>
+        <v>469474.0</v>
       </c>
       <c r="C148" t="s">
         <v>7</v>
@@ -8722,20 +8774,24 @@
         <v>8</v>
       </c>
       <c r="E148" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F148" t="s">
-        <v>20</v>
-      </c>
-      <c r="G148"/>
-      <c r="H148"/>
+        <v>45</v>
+      </c>
+      <c r="G148" t="s">
+        <v>48</v>
+      </c>
+      <c r="H148" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B149" t="n">
-        <v>469625.0</v>
+        <v>469486.0</v>
       </c>
       <c r="C149" t="s">
         <v>7</v>
@@ -8744,24 +8800,20 @@
         <v>8</v>
       </c>
       <c r="E149" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" t="s">
-        <v>21</v>
-      </c>
-      <c r="H149" t="s">
-        <v>20</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G149"/>
+      <c r="H149"/>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B150" t="n">
-        <v>469740.0</v>
+        <v>469625.0</v>
       </c>
       <c r="C150" t="s">
         <v>7</v>
@@ -8770,24 +8822,24 @@
         <v>8</v>
       </c>
       <c r="E150" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F150" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G150" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H150" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B151" t="n">
-        <v>469823.0</v>
+        <v>469740.0</v>
       </c>
       <c r="C151" t="s">
         <v>7</v>
@@ -8796,20 +8848,24 @@
         <v>8</v>
       </c>
       <c r="E151" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151"/>
-      <c r="H151"/>
+        <v>45</v>
+      </c>
+      <c r="G151" t="s">
+        <v>48</v>
+      </c>
+      <c r="H151" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B152" t="n">
-        <v>469857.0</v>
+        <v>469823.0</v>
       </c>
       <c r="C152" t="s">
         <v>7</v>
@@ -8818,22 +8874,20 @@
         <v>8</v>
       </c>
       <c r="E152" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>21</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G152"/>
       <c r="H152"/>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B153" t="n">
-        <v>469975.0</v>
+        <v>469857.0</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
@@ -8842,24 +8896,22 @@
         <v>8</v>
       </c>
       <c r="E153" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G153" t="s">
-        <v>21</v>
-      </c>
-      <c r="H153" t="s">
-        <v>20</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H153"/>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B154" t="n">
-        <v>470129.0</v>
+        <v>469975.0</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
@@ -8868,20 +8920,24 @@
         <v>8</v>
       </c>
       <c r="E154" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F154" t="s">
-        <v>21</v>
-      </c>
-      <c r="G154"/>
-      <c r="H154"/>
+        <v>47</v>
+      </c>
+      <c r="G154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H154" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B155" t="n">
-        <v>470144.0</v>
+        <v>470129.0</v>
       </c>
       <c r="C155" t="s">
         <v>7</v>
@@ -8890,20 +8946,20 @@
         <v>8</v>
       </c>
       <c r="E155" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G155"/>
       <c r="H155"/>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B156" t="n">
-        <v>470282.0</v>
+        <v>470144.0</v>
       </c>
       <c r="C156" t="s">
         <v>7</v>
@@ -8912,24 +8968,20 @@
         <v>8</v>
       </c>
       <c r="E156" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F156" t="s">
-        <v>19</v>
-      </c>
-      <c r="G156" t="s">
-        <v>20</v>
-      </c>
-      <c r="H156" t="s">
-        <v>21</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G156"/>
+      <c r="H156"/>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B157" t="n">
-        <v>470290.0</v>
+        <v>470282.0</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
@@ -8938,20 +8990,24 @@
         <v>8</v>
       </c>
       <c r="E157" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F157" t="s">
-        <v>21</v>
-      </c>
-      <c r="G157"/>
-      <c r="H157"/>
+        <v>45</v>
+      </c>
+      <c r="G157" t="s">
+        <v>48</v>
+      </c>
+      <c r="H157" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B158" t="n">
-        <v>470309.0</v>
+        <v>470290.0</v>
       </c>
       <c r="C158" t="s">
         <v>7</v>
@@ -8960,20 +9016,20 @@
         <v>8</v>
       </c>
       <c r="E158" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F158" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G158"/>
       <c r="H158"/>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B159" t="n">
-        <v>470373.0</v>
+        <v>470309.0</v>
       </c>
       <c r="C159" t="s">
         <v>7</v>
@@ -8982,22 +9038,20 @@
         <v>8</v>
       </c>
       <c r="E159" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F159" t="s">
-        <v>20</v>
-      </c>
-      <c r="G159" t="s">
-        <v>18</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G159"/>
       <c r="H159"/>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B160" t="n">
-        <v>470405.0</v>
+        <v>470373.0</v>
       </c>
       <c r="C160" t="s">
         <v>7</v>
@@ -9006,20 +9060,22 @@
         <v>8</v>
       </c>
       <c r="E160" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160"/>
+        <v>47</v>
+      </c>
+      <c r="G160" t="s">
+        <v>44</v>
+      </c>
       <c r="H160"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B161" t="n">
-        <v>470467.0</v>
+        <v>470405.0</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
@@ -9028,22 +9084,20 @@
         <v>8</v>
       </c>
       <c r="E161" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
-      </c>
-      <c r="G161" t="s">
-        <v>21</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G161"/>
       <c r="H161"/>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B162" t="n">
-        <v>470488.0</v>
+        <v>470467.0</v>
       </c>
       <c r="C162" t="s">
         <v>7</v>
@@ -9052,22 +9106,22 @@
         <v>8</v>
       </c>
       <c r="E162" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F162" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G162" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H162"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B163" t="n">
-        <v>470638.0</v>
+        <v>470488.0</v>
       </c>
       <c r="C163" t="s">
         <v>7</v>
@@ -9076,20 +9130,22 @@
         <v>8</v>
       </c>
       <c r="E163" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F163" t="s">
-        <v>20</v>
-      </c>
-      <c r="G163"/>
+        <v>47</v>
+      </c>
+      <c r="G163" t="s">
+        <v>48</v>
+      </c>
       <c r="H163"/>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B164" t="n">
-        <v>470668.0</v>
+        <v>470638.0</v>
       </c>
       <c r="C164" t="s">
         <v>7</v>
@@ -9098,20 +9154,20 @@
         <v>8</v>
       </c>
       <c r="E164" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F164" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G164"/>
       <c r="H164"/>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B165" t="n">
-        <v>470754.0</v>
+        <v>470668.0</v>
       </c>
       <c r="C165" t="s">
         <v>7</v>
@@ -9120,22 +9176,20 @@
         <v>8</v>
       </c>
       <c r="E165" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" t="s">
-        <v>20</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G165"/>
       <c r="H165"/>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B166" t="n">
-        <v>470773.0</v>
+        <v>470754.0</v>
       </c>
       <c r="C166" t="s">
         <v>7</v>
@@ -9144,24 +9198,22 @@
         <v>8</v>
       </c>
       <c r="E166" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G166" t="s">
-        <v>21</v>
-      </c>
-      <c r="H166" t="s">
-        <v>20</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H166"/>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B167" t="n">
-        <v>470782.0</v>
+        <v>470773.0</v>
       </c>
       <c r="C167" t="s">
         <v>7</v>
@@ -9170,24 +9222,24 @@
         <v>8</v>
       </c>
       <c r="E167" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F167" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G167" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H167" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B168" t="n">
-        <v>470830.0</v>
+        <v>470782.0</v>
       </c>
       <c r="C168" t="s">
         <v>7</v>
@@ -9196,20 +9248,24 @@
         <v>8</v>
       </c>
       <c r="E168" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F168" t="s">
-        <v>21</v>
-      </c>
-      <c r="G168"/>
-      <c r="H168"/>
+        <v>45</v>
+      </c>
+      <c r="G168" t="s">
+        <v>48</v>
+      </c>
+      <c r="H168" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B169" t="n">
-        <v>470859.0</v>
+        <v>470830.0</v>
       </c>
       <c r="C169" t="s">
         <v>7</v>
@@ -9218,22 +9274,20 @@
         <v>8</v>
       </c>
       <c r="E169" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F169" t="s">
-        <v>21</v>
-      </c>
-      <c r="G169" t="s">
-        <v>18</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G169"/>
       <c r="H169"/>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B170" t="n">
-        <v>470921.0</v>
+        <v>470859.0</v>
       </c>
       <c r="C170" t="s">
         <v>7</v>
@@ -9242,20 +9296,22 @@
         <v>8</v>
       </c>
       <c r="E170" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F170" t="s">
-        <v>21</v>
-      </c>
-      <c r="G170"/>
+        <v>48</v>
+      </c>
+      <c r="G170" t="s">
+        <v>44</v>
+      </c>
       <c r="H170"/>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B171" t="n">
-        <v>471016.0</v>
+        <v>470921.0</v>
       </c>
       <c r="C171" t="s">
         <v>7</v>
@@ -9264,20 +9320,20 @@
         <v>8</v>
       </c>
       <c r="E171" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F171" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G171"/>
       <c r="H171"/>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B172" t="n">
-        <v>471028.0</v>
+        <v>471016.0</v>
       </c>
       <c r="C172" t="s">
         <v>7</v>
@@ -9286,24 +9342,20 @@
         <v>8</v>
       </c>
       <c r="E172" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172" t="s">
-        <v>21</v>
-      </c>
-      <c r="H172" t="s">
-        <v>20</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G172"/>
+      <c r="H172"/>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B173" t="n">
-        <v>471129.0</v>
+        <v>471028.0</v>
       </c>
       <c r="C173" t="s">
         <v>7</v>
@@ -9312,20 +9364,24 @@
         <v>8</v>
       </c>
       <c r="E173" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173"/>
-      <c r="H173"/>
+        <v>47</v>
+      </c>
+      <c r="G173" t="s">
+        <v>44</v>
+      </c>
+      <c r="H173" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B174" t="n">
-        <v>471229.0</v>
+        <v>471129.0</v>
       </c>
       <c r="C174" t="s">
         <v>7</v>
@@ -9334,20 +9390,20 @@
         <v>8</v>
       </c>
       <c r="E174" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F174" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G174"/>
       <c r="H174"/>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B175" t="n">
-        <v>471255.0</v>
+        <v>471229.0</v>
       </c>
       <c r="C175" t="s">
         <v>7</v>
@@ -9356,20 +9412,20 @@
         <v>8</v>
       </c>
       <c r="E175" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F175" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G175"/>
       <c r="H175"/>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B176" t="n">
-        <v>471263.0</v>
+        <v>471255.0</v>
       </c>
       <c r="C176" t="s">
         <v>7</v>
@@ -9378,22 +9434,20 @@
         <v>8</v>
       </c>
       <c r="E176" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F176" t="s">
-        <v>20</v>
-      </c>
-      <c r="G176" t="s">
-        <v>21</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G176"/>
       <c r="H176"/>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B177" t="n">
-        <v>471492.0</v>
+        <v>471263.0</v>
       </c>
       <c r="C177" t="s">
         <v>7</v>
@@ -9402,20 +9456,22 @@
         <v>8</v>
       </c>
       <c r="E177" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F177" t="s">
-        <v>21</v>
-      </c>
-      <c r="G177"/>
+        <v>47</v>
+      </c>
+      <c r="G177" t="s">
+        <v>48</v>
+      </c>
       <c r="H177"/>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B178" t="n">
-        <v>471545.0</v>
+        <v>471492.0</v>
       </c>
       <c r="C178" t="s">
         <v>7</v>
@@ -9424,22 +9480,20 @@
         <v>8</v>
       </c>
       <c r="E178" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F178" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" t="s">
-        <v>20</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G178"/>
       <c r="H178"/>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B179" t="n">
-        <v>471760.0</v>
+        <v>471545.0</v>
       </c>
       <c r="C179" t="s">
         <v>7</v>
@@ -9448,20 +9502,22 @@
         <v>8</v>
       </c>
       <c r="E179" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F179" t="s">
-        <v>20</v>
-      </c>
-      <c r="G179"/>
+        <v>44</v>
+      </c>
+      <c r="G179" t="s">
+        <v>47</v>
+      </c>
       <c r="H179"/>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B180" t="n">
-        <v>472004.0</v>
+        <v>471760.0</v>
       </c>
       <c r="C180" t="s">
         <v>7</v>
@@ -9470,20 +9526,20 @@
         <v>8</v>
       </c>
       <c r="E180" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F180" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="G180"/>
       <c r="H180"/>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B181" t="n">
-        <v>472145.0</v>
+        <v>472004.0</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
@@ -9492,22 +9548,20 @@
         <v>8</v>
       </c>
       <c r="E181" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F181" t="s">
-        <v>20</v>
-      </c>
-      <c r="G181" t="s">
-        <v>21</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G181"/>
       <c r="H181"/>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B182" t="n">
-        <v>472434.0</v>
+        <v>472145.0</v>
       </c>
       <c r="C182" t="s">
         <v>7</v>
@@ -9516,20 +9570,22 @@
         <v>8</v>
       </c>
       <c r="E182" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F182" t="s">
-        <v>19</v>
-      </c>
-      <c r="G182"/>
+        <v>45</v>
+      </c>
+      <c r="G182" t="s">
+        <v>44</v>
+      </c>
       <c r="H182"/>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B183" t="n">
-        <v>472501.0</v>
+        <v>472434.0</v>
       </c>
       <c r="C183" t="s">
         <v>7</v>
@@ -9538,24 +9594,20 @@
         <v>8</v>
       </c>
       <c r="E183" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F183" t="s">
-        <v>19</v>
-      </c>
-      <c r="G183" t="s">
-        <v>20</v>
-      </c>
-      <c r="H183" t="s">
-        <v>21</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G183"/>
+      <c r="H183"/>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B184" t="n">
-        <v>472537.0</v>
+        <v>472501.0</v>
       </c>
       <c r="C184" t="s">
         <v>7</v>
@@ -9564,20 +9616,24 @@
         <v>8</v>
       </c>
       <c r="E184" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F184" t="s">
-        <v>21</v>
-      </c>
-      <c r="G184"/>
-      <c r="H184"/>
+        <v>45</v>
+      </c>
+      <c r="G184" t="s">
+        <v>48</v>
+      </c>
+      <c r="H184" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B185" t="n">
-        <v>472782.0</v>
+        <v>472537.0</v>
       </c>
       <c r="C185" t="s">
         <v>7</v>
@@ -9586,22 +9642,20 @@
         <v>8</v>
       </c>
       <c r="E185" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F185" t="s">
-        <v>21</v>
-      </c>
-      <c r="G185" t="s">
-        <v>18</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G185"/>
       <c r="H185"/>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B186" t="n">
-        <v>472962.0</v>
+        <v>472782.0</v>
       </c>
       <c r="C186" t="s">
         <v>7</v>
@@ -9610,20 +9664,22 @@
         <v>8</v>
       </c>
       <c r="E186" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F186" t="s">
-        <v>21</v>
-      </c>
-      <c r="G186"/>
+        <v>48</v>
+      </c>
+      <c r="G186" t="s">
+        <v>44</v>
+      </c>
       <c r="H186"/>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B187" t="n">
-        <v>473195.0</v>
+        <v>472962.0</v>
       </c>
       <c r="C187" t="s">
         <v>7</v>
@@ -9632,22 +9688,20 @@
         <v>8</v>
       </c>
       <c r="E187" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F187" t="s">
-        <v>20</v>
-      </c>
-      <c r="G187" t="s">
-        <v>21</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G187"/>
       <c r="H187"/>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B188" t="n">
-        <v>473215.0</v>
+        <v>473195.0</v>
       </c>
       <c r="C188" t="s">
         <v>7</v>
@@ -9656,22 +9710,22 @@
         <v>8</v>
       </c>
       <c r="E188" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F188" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G188" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H188"/>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B189" t="n">
-        <v>473482.0</v>
+        <v>473215.0</v>
       </c>
       <c r="C189" t="s">
         <v>7</v>
@@ -9680,20 +9734,22 @@
         <v>8</v>
       </c>
       <c r="E189" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F189" t="s">
-        <v>20</v>
-      </c>
-      <c r="G189"/>
+        <v>47</v>
+      </c>
+      <c r="G189" t="s">
+        <v>48</v>
+      </c>
       <c r="H189"/>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B190" t="n">
-        <v>473708.0</v>
+        <v>473482.0</v>
       </c>
       <c r="C190" t="s">
         <v>7</v>
@@ -9702,22 +9758,20 @@
         <v>8</v>
       </c>
       <c r="E190" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F190" t="s">
-        <v>18</v>
-      </c>
-      <c r="G190" t="s">
-        <v>20</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G190"/>
       <c r="H190"/>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B191" t="n">
-        <v>473899.0</v>
+        <v>473708.0</v>
       </c>
       <c r="C191" t="s">
         <v>7</v>
@@ -9726,20 +9780,22 @@
         <v>8</v>
       </c>
       <c r="E191" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F191" t="s">
-        <v>21</v>
-      </c>
-      <c r="G191"/>
+        <v>44</v>
+      </c>
+      <c r="G191" t="s">
+        <v>47</v>
+      </c>
       <c r="H191"/>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B192" t="n">
-        <v>475115.0</v>
+        <v>473899.0</v>
       </c>
       <c r="C192" t="s">
         <v>7</v>
@@ -9748,20 +9804,20 @@
         <v>8</v>
       </c>
       <c r="E192" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G192"/>
       <c r="H192"/>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B193" t="n">
-        <v>476008.0</v>
+        <v>475115.0</v>
       </c>
       <c r="C193" t="s">
         <v>7</v>
@@ -9770,20 +9826,20 @@
         <v>8</v>
       </c>
       <c r="E193" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F193" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G193"/>
       <c r="H193"/>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B194" t="n">
-        <v>476289.0</v>
+        <v>476008.0</v>
       </c>
       <c r="C194" t="s">
         <v>7</v>
@@ -9792,20 +9848,20 @@
         <v>8</v>
       </c>
       <c r="E194" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F194" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="G194"/>
       <c r="H194"/>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B195" t="n">
-        <v>476531.0</v>
+        <v>476289.0</v>
       </c>
       <c r="C195" t="s">
         <v>7</v>
@@ -9814,20 +9870,20 @@
         <v>8</v>
       </c>
       <c r="E195" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F195" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G195"/>
       <c r="H195"/>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B196" t="n">
-        <v>476883.0</v>
+        <v>476531.0</v>
       </c>
       <c r="C196" t="s">
         <v>7</v>
@@ -9836,22 +9892,20 @@
         <v>8</v>
       </c>
       <c r="E196" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F196" t="s">
-        <v>19</v>
-      </c>
-      <c r="G196" t="s">
-        <v>21</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G196"/>
       <c r="H196"/>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B197" t="n">
-        <v>477153.0</v>
+        <v>476883.0</v>
       </c>
       <c r="C197" t="s">
         <v>7</v>
@@ -9860,20 +9914,22 @@
         <v>8</v>
       </c>
       <c r="E197" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F197" t="s">
-        <v>20</v>
-      </c>
-      <c r="G197"/>
+        <v>48</v>
+      </c>
+      <c r="G197" t="s">
+        <v>44</v>
+      </c>
       <c r="H197"/>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B198" t="n">
-        <v>477738.0</v>
+        <v>477153.0</v>
       </c>
       <c r="C198" t="s">
         <v>7</v>
@@ -9882,20 +9938,20 @@
         <v>8</v>
       </c>
       <c r="E198" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F198" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="G198"/>
       <c r="H198"/>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B199" t="n">
-        <v>478406.0</v>
+        <v>477738.0</v>
       </c>
       <c r="C199" t="s">
         <v>7</v>
@@ -9904,24 +9960,20 @@
         <v>8</v>
       </c>
       <c r="E199" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F199" t="s">
-        <v>18</v>
-      </c>
-      <c r="G199" t="s">
-        <v>21</v>
-      </c>
-      <c r="H199" t="s">
-        <v>20</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G199"/>
+      <c r="H199"/>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B200" t="n">
-        <v>478589.0</v>
+        <v>478406.0</v>
       </c>
       <c r="C200" t="s">
         <v>7</v>
@@ -9930,20 +9982,24 @@
         <v>8</v>
       </c>
       <c r="E200" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F200" t="s">
-        <v>21</v>
-      </c>
-      <c r="G200"/>
-      <c r="H200"/>
+        <v>47</v>
+      </c>
+      <c r="G200" t="s">
+        <v>44</v>
+      </c>
+      <c r="H200" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B201" t="n">
-        <v>479276.0</v>
+        <v>478589.0</v>
       </c>
       <c r="C201" t="s">
         <v>7</v>
@@ -9952,24 +10008,20 @@
         <v>8</v>
       </c>
       <c r="E201" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F201" t="s">
-        <v>19</v>
-      </c>
-      <c r="G201" t="s">
-        <v>20</v>
-      </c>
-      <c r="H201" t="s">
-        <v>21</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G201"/>
+      <c r="H201"/>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B202" t="n">
-        <v>479658.0</v>
+        <v>479276.0</v>
       </c>
       <c r="C202" t="s">
         <v>7</v>
@@ -9978,37 +10030,89 @@
         <v>8</v>
       </c>
       <c r="E202" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F202" t="s">
-        <v>18</v>
-      </c>
-      <c r="G202"/>
-      <c r="H202"/>
+        <v>45</v>
+      </c>
+      <c r="G202" t="s">
+        <v>48</v>
+      </c>
+      <c r="H202" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B203" t="n">
+        <v>479658.0</v>
+      </c>
+      <c r="C203" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" t="s">
+        <v>44</v>
+      </c>
+      <c r="F203" t="s">
+        <v>47</v>
+      </c>
+      <c r="G203"/>
+      <c r="H203"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>46</v>
+      </c>
+      <c r="B204" t="n">
+        <v>532682.0</v>
+      </c>
+      <c r="C204" t="s">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s">
+        <v>33</v>
+      </c>
+      <c r="E204" t="s">
+        <v>45</v>
+      </c>
+      <c r="F204" t="s">
+        <v>47</v>
+      </c>
+      <c r="G204" t="s">
+        <v>44</v>
+      </c>
+      <c r="H204" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>49</v>
+      </c>
+      <c r="B205" t="n">
         <v>987654.0</v>
       </c>
-      <c r="C203" t="s">
-        <v>7</v>
-      </c>
-      <c r="D203" t="s">
-        <v>8</v>
-      </c>
-      <c r="E203" t="s">
-        <v>20</v>
-      </c>
-      <c r="F203" t="s">
-        <v>21</v>
-      </c>
-      <c r="G203" t="s">
-        <v>18</v>
-      </c>
-      <c r="H203"/>
+      <c r="C205" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" t="s">
+        <v>47</v>
+      </c>
+      <c r="F205" t="s">
+        <v>48</v>
+      </c>
+      <c r="G205" t="s">
+        <v>44</v>
+      </c>
+      <c r="H205"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/application/data/StudentData.xlsx
+++ b/application/data/StudentData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mecha\Documents\GitHub\Invited-Meeting-Scheduler\application\data\"/>
     </mc:Choice>
@@ -14,10 +14,11 @@
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="1" r:id="rId1"/>
+    <sheet name="ScheduleData" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -47,11 +48,27 @@
   <si>
     <t>Humanities</t>
   </si>
+  <si>
+    <t>Rotations Needed</t>
+  </si>
+  <si>
+    <t>ROT1</t>
+  </si>
+  <si>
+    <t>ROT2</t>
+  </si>
+  <si>
+    <t>ROT3</t>
+  </si>
+  <si>
+    <t>ROT4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,7 +406,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1576,4 +1593,43 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/application/data/StudentData.xlsx
+++ b/application/data/StudentData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mecha\Documents\GitHub\Invited-Meeting-Scheduler\scr\main\resources\backups\"/>
     </mc:Choice>
@@ -14,10 +14,11 @@
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="1" r:id="rId1"/>
+    <sheet name="ScheduleData" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -46,12 +47,139 @@
   </si>
   <si>
     <t>Humanities</t>
+  </si>
+  <si>
+    <t>Rotations Needed</t>
+  </si>
+  <si>
+    <t>ROT1</t>
+  </si>
+  <si>
+    <t>ROT2</t>
+  </si>
+  <si>
+    <t>ROT3</t>
+  </si>
+  <si>
+    <t>ROT4</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>John T. Baker Middle School</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>wr</t>
+  </si>
+  <si>
+    <t>Benjamin Banneker Middle School</t>
+  </si>
+  <si>
+    <t>dgesg</t>
+  </si>
+  <si>
+    <t>etefwf</t>
+  </si>
+  <si>
+    <t>Forest Oak Middle School</t>
+  </si>
+  <si>
+    <t>ef</t>
+  </si>
+  <si>
+    <t>dfasf</t>
+  </si>
+  <si>
+    <t>Roberto W. Clemente Middle School</t>
+  </si>
+  <si>
+    <t>sgvsv</t>
+  </si>
+  <si>
+    <t>etrtt</t>
+  </si>
+  <si>
+    <t>Rosa M. Parks Middle School</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Tilden Middle School</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Eastern Middle School</t>
+  </si>
+  <si>
+    <t>Deb</t>
+  </si>
+  <si>
+    <t>Dresser</t>
+  </si>
+  <si>
+    <t>Rocky Hill Middle School</t>
+  </si>
+  <si>
+    <t>1 Rotations: SMCS</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>3 Rotations: Global, Humanities, SMCS</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>2 Rotations: Global, Humanities</t>
+  </si>
+  <si>
+    <t>2 Rotations: Humanities, SMCS</t>
+  </si>
+  <si>
+    <t>2 Rotations: Global, SMCS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -363,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
@@ -394,7 +522,471 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>111111.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>123456.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>124566.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>213456.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>215351.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>353515.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>358285.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>462673.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>463462.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="n">
+        <v>111111.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="n">
+        <v>123456.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="n">
+        <v>124566.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="n">
+        <v>213456.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="n">
+        <v>215351.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="n">
+        <v>353515.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="n">
+        <v>358285.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="n">
+        <v>462673.0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="n">
+        <v>463462.0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>